--- a/stock_historical_data/1mo/RTNINDIA.NS.xlsx
+++ b/stock_historical_data/1mo/RTNINDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P143"/>
+  <dimension ref="A1:Q144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>1</v>
       </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2018,6 +2110,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2068,6 +2163,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2118,6 +2216,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2168,6 +2269,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2218,6 +2322,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2268,6 +2375,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2318,6 +2428,9 @@
       <c r="P37" t="n">
         <v>1</v>
       </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2368,6 +2481,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2418,6 +2534,9 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2468,6 +2587,9 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2518,6 +2640,9 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2568,6 +2693,9 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2618,6 +2746,9 @@
       <c r="P43" t="n">
         <v>1</v>
       </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2668,6 +2799,9 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2718,6 +2852,9 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2768,6 +2905,9 @@
       <c r="P46" t="n">
         <v>0</v>
       </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2818,6 +2958,9 @@
       <c r="P47" t="n">
         <v>0</v>
       </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2868,6 +3011,9 @@
       <c r="P48" t="n">
         <v>0</v>
       </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2918,6 +3064,9 @@
       <c r="P49" t="n">
         <v>0</v>
       </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2968,6 +3117,9 @@
       <c r="P50" t="n">
         <v>0</v>
       </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3018,6 +3170,9 @@
       <c r="P51" t="n">
         <v>0</v>
       </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3068,6 +3223,9 @@
       <c r="P52" t="n">
         <v>0</v>
       </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3118,6 +3276,9 @@
       <c r="P53" t="n">
         <v>0</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3168,6 +3329,9 @@
       <c r="P54" t="n">
         <v>0</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3218,6 +3382,9 @@
       <c r="P55" t="n">
         <v>0</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3268,6 +3435,9 @@
       <c r="P56" t="n">
         <v>0</v>
       </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3318,6 +3488,9 @@
       <c r="P57" t="n">
         <v>1</v>
       </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3368,6 +3541,9 @@
       <c r="P58" t="n">
         <v>0</v>
       </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3418,6 +3594,9 @@
       <c r="P59" t="n">
         <v>0</v>
       </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3468,6 +3647,9 @@
       <c r="P60" t="n">
         <v>0</v>
       </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3518,6 +3700,9 @@
       <c r="P61" t="n">
         <v>0</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3568,6 +3753,9 @@
       <c r="P62" t="n">
         <v>0</v>
       </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3618,6 +3806,9 @@
       <c r="P63" t="n">
         <v>0</v>
       </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3668,6 +3859,9 @@
       <c r="P64" t="n">
         <v>0</v>
       </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3718,6 +3912,9 @@
       <c r="P65" t="n">
         <v>0</v>
       </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3768,6 +3965,9 @@
       <c r="P66" t="n">
         <v>0</v>
       </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3818,6 +4018,9 @@
       <c r="P67" t="n">
         <v>0</v>
       </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3868,6 +4071,9 @@
       <c r="P68" t="n">
         <v>0</v>
       </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3918,6 +4124,9 @@
       <c r="P69" t="n">
         <v>0</v>
       </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3968,6 +4177,9 @@
       <c r="P70" t="n">
         <v>0</v>
       </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4018,6 +4230,9 @@
       <c r="P71" t="n">
         <v>0</v>
       </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4068,6 +4283,9 @@
       <c r="P72" t="n">
         <v>0</v>
       </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4118,6 +4336,9 @@
       <c r="P73" t="n">
         <v>0</v>
       </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4168,6 +4389,9 @@
       <c r="P74" t="n">
         <v>0</v>
       </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4218,6 +4442,9 @@
       <c r="P75" t="n">
         <v>0</v>
       </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4268,6 +4495,9 @@
       <c r="P76" t="n">
         <v>0</v>
       </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4318,6 +4548,9 @@
       <c r="P77" t="n">
         <v>0</v>
       </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4368,6 +4601,9 @@
       <c r="P78" t="n">
         <v>0</v>
       </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4418,6 +4654,9 @@
       <c r="P79" t="n">
         <v>0</v>
       </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4468,6 +4707,9 @@
       <c r="P80" t="n">
         <v>0</v>
       </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4518,6 +4760,9 @@
       <c r="P81" t="n">
         <v>0</v>
       </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4568,6 +4813,9 @@
       <c r="P82" t="n">
         <v>0</v>
       </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4618,6 +4866,9 @@
       <c r="P83" t="n">
         <v>0</v>
       </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4668,6 +4919,9 @@
       <c r="P84" t="n">
         <v>0</v>
       </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4718,6 +4972,9 @@
       <c r="P85" t="n">
         <v>0</v>
       </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4768,6 +5025,9 @@
       <c r="P86" t="n">
         <v>0</v>
       </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4818,6 +5078,9 @@
       <c r="P87" t="n">
         <v>0</v>
       </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4868,6 +5131,9 @@
       <c r="P88" t="n">
         <v>0</v>
       </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4918,6 +5184,9 @@
       <c r="P89" t="n">
         <v>0</v>
       </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4968,6 +5237,9 @@
       <c r="P90" t="n">
         <v>0</v>
       </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5018,6 +5290,9 @@
       <c r="P91" t="n">
         <v>0</v>
       </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5068,6 +5343,9 @@
       <c r="P92" t="n">
         <v>0</v>
       </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5118,6 +5396,9 @@
       <c r="P93" t="n">
         <v>0</v>
       </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5168,6 +5449,9 @@
       <c r="P94" t="n">
         <v>0</v>
       </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5218,6 +5502,9 @@
       <c r="P95" t="n">
         <v>0</v>
       </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5268,6 +5555,9 @@
       <c r="P96" t="n">
         <v>0</v>
       </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5318,6 +5608,9 @@
       <c r="P97" t="n">
         <v>0</v>
       </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5368,6 +5661,9 @@
       <c r="P98" t="n">
         <v>0</v>
       </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5418,6 +5714,9 @@
       <c r="P99" t="n">
         <v>0</v>
       </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5468,6 +5767,9 @@
       <c r="P100" t="n">
         <v>0</v>
       </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5518,6 +5820,9 @@
       <c r="P101" t="n">
         <v>0</v>
       </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5568,6 +5873,9 @@
       <c r="P102" t="n">
         <v>0</v>
       </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5618,6 +5926,9 @@
       <c r="P103" t="n">
         <v>0</v>
       </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5668,6 +5979,9 @@
       <c r="P104" t="n">
         <v>0</v>
       </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5718,6 +6032,9 @@
       <c r="P105" t="n">
         <v>0</v>
       </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5768,6 +6085,9 @@
       <c r="P106" t="n">
         <v>0</v>
       </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5818,6 +6138,9 @@
       <c r="P107" t="n">
         <v>0</v>
       </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5868,6 +6191,9 @@
       <c r="P108" t="n">
         <v>0</v>
       </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5918,6 +6244,9 @@
       <c r="P109" t="n">
         <v>0</v>
       </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -5968,6 +6297,9 @@
       <c r="P110" t="n">
         <v>0</v>
       </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6018,6 +6350,9 @@
       <c r="P111" t="n">
         <v>0</v>
       </c>
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6068,6 +6403,9 @@
       <c r="P112" t="n">
         <v>0</v>
       </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6118,6 +6456,9 @@
       <c r="P113" t="n">
         <v>0</v>
       </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6168,6 +6509,9 @@
       <c r="P114" t="n">
         <v>0</v>
       </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6218,6 +6562,9 @@
       <c r="P115" t="n">
         <v>0</v>
       </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6268,6 +6615,9 @@
       <c r="P116" t="n">
         <v>0</v>
       </c>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6318,6 +6668,9 @@
       <c r="P117" t="n">
         <v>0</v>
       </c>
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6368,6 +6721,9 @@
       <c r="P118" t="n">
         <v>0</v>
       </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6418,6 +6774,9 @@
       <c r="P119" t="n">
         <v>0</v>
       </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6468,6 +6827,9 @@
       <c r="P120" t="n">
         <v>0</v>
       </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6518,6 +6880,9 @@
       <c r="P121" t="n">
         <v>0</v>
       </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6568,6 +6933,9 @@
       <c r="P122" t="n">
         <v>0</v>
       </c>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6618,6 +6986,9 @@
       <c r="P123" t="n">
         <v>0</v>
       </c>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -6668,6 +7039,9 @@
       <c r="P124" t="n">
         <v>0</v>
       </c>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -6718,6 +7092,9 @@
       <c r="P125" t="n">
         <v>0</v>
       </c>
+      <c r="Q125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -6768,6 +7145,9 @@
       <c r="P126" t="n">
         <v>0</v>
       </c>
+      <c r="Q126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -6818,6 +7198,9 @@
       <c r="P127" t="n">
         <v>0</v>
       </c>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -6868,6 +7251,9 @@
       <c r="P128" t="n">
         <v>0</v>
       </c>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -6918,6 +7304,9 @@
       <c r="P129" t="n">
         <v>0</v>
       </c>
+      <c r="Q129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -6968,6 +7357,9 @@
       <c r="P130" t="n">
         <v>0</v>
       </c>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7018,6 +7410,9 @@
       <c r="P131" t="n">
         <v>0</v>
       </c>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7068,6 +7463,9 @@
       <c r="P132" t="n">
         <v>0</v>
       </c>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7118,6 +7516,9 @@
       <c r="P133" t="n">
         <v>0</v>
       </c>
+      <c r="Q133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7168,6 +7569,9 @@
       <c r="P134" t="n">
         <v>0</v>
       </c>
+      <c r="Q134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7218,6 +7622,9 @@
       <c r="P135" t="n">
         <v>0</v>
       </c>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7268,6 +7675,9 @@
       <c r="P136" t="n">
         <v>0</v>
       </c>
+      <c r="Q136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7318,6 +7728,9 @@
       <c r="P137" t="n">
         <v>0</v>
       </c>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7368,6 +7781,9 @@
       <c r="P138" t="n">
         <v>0</v>
       </c>
+      <c r="Q138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7418,6 +7834,9 @@
       <c r="P139" t="n">
         <v>0</v>
       </c>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7468,6 +7887,9 @@
       <c r="P140" t="n">
         <v>0</v>
       </c>
+      <c r="Q140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7513,9 +7935,12 @@
         <v>9</v>
       </c>
       <c r="O141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7568,6 +7993,9 @@
       <c r="P142" t="n">
         <v>0</v>
       </c>
+      <c r="Q142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -7618,6 +8046,60 @@
       <c r="P143" t="n">
         <v>0</v>
       </c>
+      <c r="Q143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B144" t="n">
+        <v>77</v>
+      </c>
+      <c r="C144" t="n">
+        <v>77</v>
+      </c>
+      <c r="D144" t="n">
+        <v>76.90000152587891</v>
+      </c>
+      <c r="E144" t="n">
+        <v>76.90000152587891</v>
+      </c>
+      <c r="F144" t="n">
+        <v>76.90000152587891</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I144" t="n">
+        <v>6</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>22</v>
+      </c>
+      <c r="O144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q144" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/RTNINDIA.NS.xlsx
+++ b/stock_historical_data/1mo/RTNINDIA.NS.xlsx
@@ -8099,7 +8099,9 @@
       <c r="P144" t="n">
         <v>0</v>
       </c>
-      <c r="Q144" t="inlineStr"/>
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/RTNINDIA.NS.xlsx
+++ b/stock_historical_data/1mo/RTNINDIA.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q144"/>
+  <dimension ref="A1:Q154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,31 +526,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>41122</v>
+        <v>41091</v>
       </c>
       <c r="B2" t="n">
-        <v>4.599999904632568</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>6.300000190734863</v>
+        <v>4.400000095367432</v>
       </c>
       <c r="D2" t="n">
         <v>3.799999952316284</v>
       </c>
       <c r="E2" t="n">
-        <v>4.449999809265137</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4.449999809265137</v>
-      </c>
+        <v>4.400000095367432</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>69227812</v>
+        <v>7159221</v>
       </c>
       <c r="H2" t="n">
         <v>2012</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -565,45 +563,39 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>31</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>41153</v>
+        <v>41122</v>
       </c>
       <c r="B3" t="n">
-        <v>4.25</v>
+        <v>4.599999904632568</v>
       </c>
       <c r="C3" t="n">
-        <v>6.699999809265137</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="D3" t="n">
-        <v>4.150000095367432</v>
+        <v>3.799999952316284</v>
       </c>
       <c r="E3" t="n">
-        <v>6.449999809265137</v>
+        <v>4.449999809265137</v>
       </c>
       <c r="F3" t="n">
-        <v>6.449999809265137</v>
+        <v>4.449999809265137</v>
       </c>
       <c r="G3" t="n">
-        <v>49820525</v>
+        <v>69227812</v>
       </c>
       <c r="H3" t="n">
         <v>2012</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -618,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -632,31 +624,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>41183</v>
+        <v>41153</v>
       </c>
       <c r="B4" t="n">
-        <v>6.5</v>
+        <v>4.25</v>
       </c>
       <c r="C4" t="n">
-        <v>7.599999904632568</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="D4" t="n">
-        <v>5.699999809265137</v>
+        <v>4.150000095367432</v>
       </c>
       <c r="E4" t="n">
-        <v>6.349999904632568</v>
+        <v>6.449999809265137</v>
       </c>
       <c r="F4" t="n">
-        <v>6.349999904632568</v>
+        <v>6.449999809265137</v>
       </c>
       <c r="G4" t="n">
-        <v>33558001</v>
+        <v>49820525</v>
       </c>
       <c r="H4" t="n">
         <v>2012</v>
       </c>
       <c r="I4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -671,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -685,31 +677,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>41214</v>
+        <v>41183</v>
       </c>
       <c r="B5" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="D5" t="n">
-        <v>5.400000095367432</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="E5" t="n">
-        <v>6.400000095367432</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="F5" t="n">
-        <v>6.400000095367432</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="G5" t="n">
-        <v>20773052</v>
+        <v>33558001</v>
       </c>
       <c r="H5" t="n">
         <v>2012</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -724,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -738,31 +730,31 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>41244</v>
+        <v>41214</v>
       </c>
       <c r="B6" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="C6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>6.300000190734863</v>
+        <v>5.400000095367432</v>
       </c>
       <c r="E6" t="n">
-        <v>6.900000095367432</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="F6" t="n">
-        <v>6.900000095367432</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="G6" t="n">
-        <v>43584885</v>
+        <v>20773052</v>
       </c>
       <c r="H6" t="n">
         <v>2012</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -777,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -791,31 +783,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>41275</v>
+        <v>41244</v>
       </c>
       <c r="B7" t="n">
-        <v>6.849999904632568</v>
+        <v>6.5</v>
       </c>
       <c r="C7" t="n">
-        <v>8.300000190734863</v>
+        <v>7.5</v>
       </c>
       <c r="D7" t="n">
-        <v>5.900000095367432</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="E7" t="n">
-        <v>6.449999809265137</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="F7" t="n">
-        <v>6.449999809265137</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="G7" t="n">
-        <v>62460799</v>
+        <v>43584885</v>
       </c>
       <c r="H7" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -830,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -844,31 +836,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>41306</v>
+        <v>41275</v>
       </c>
       <c r="B8" t="n">
-        <v>6.5</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="C8" t="n">
-        <v>6.5</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="D8" t="n">
-        <v>4.449999809265137</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="E8" t="n">
-        <v>5.050000190734863</v>
+        <v>6.449999809265137</v>
       </c>
       <c r="F8" t="n">
-        <v>5.050000190734863</v>
+        <v>6.449999809265137</v>
       </c>
       <c r="G8" t="n">
-        <v>26699754</v>
+        <v>62460799</v>
       </c>
       <c r="H8" t="n">
         <v>2013</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -883,10 +875,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -897,31 +889,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>41334</v>
+        <v>41306</v>
       </c>
       <c r="B9" t="n">
-        <v>5.099999904632568</v>
+        <v>6.5</v>
       </c>
       <c r="C9" t="n">
-        <v>5.400000095367432</v>
+        <v>6.5</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>4.449999809265137</v>
       </c>
       <c r="E9" t="n">
-        <v>4.5</v>
+        <v>5.050000190734863</v>
       </c>
       <c r="F9" t="n">
-        <v>4.5</v>
+        <v>5.050000190734863</v>
       </c>
       <c r="G9" t="n">
-        <v>44057998</v>
+        <v>26699754</v>
       </c>
       <c r="H9" t="n">
         <v>2013</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -936,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -950,31 +942,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>41365</v>
+        <v>41334</v>
       </c>
       <c r="B10" t="n">
+        <v>5.099999904632568</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.400000095367432</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
         <v>4.5</v>
       </c>
-      <c r="C10" t="n">
-        <v>5.050000190734863</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4.050000190734863</v>
-      </c>
-      <c r="E10" t="n">
-        <v>4.300000190734863</v>
-      </c>
       <c r="F10" t="n">
-        <v>4.300000190734863</v>
+        <v>4.5</v>
       </c>
       <c r="G10" t="n">
-        <v>23008253</v>
+        <v>44057998</v>
       </c>
       <c r="H10" t="n">
         <v>2013</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -989,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1003,31 +995,31 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>41395</v>
+        <v>41365</v>
       </c>
       <c r="B11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.050000190734863</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4.050000190734863</v>
+      </c>
+      <c r="E11" t="n">
         <v>4.300000190734863</v>
       </c>
-      <c r="C11" t="n">
-        <v>4.699999809265137</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3</v>
-      </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>4.300000190734863</v>
       </c>
       <c r="G11" t="n">
-        <v>14823651</v>
+        <v>23008253</v>
       </c>
       <c r="H11" t="n">
         <v>2013</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1042,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1056,31 +1048,31 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>41426</v>
+        <v>41395</v>
       </c>
       <c r="B12" t="n">
-        <v>3.049999952316284</v>
+        <v>4.300000190734863</v>
       </c>
       <c r="C12" t="n">
-        <v>3.599999904632568</v>
+        <v>4.699999809265137</v>
       </c>
       <c r="D12" t="n">
-        <v>2.549999952316284</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>3.450000047683716</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>3.450000047683716</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>15815201</v>
+        <v>14823651</v>
       </c>
       <c r="H12" t="n">
         <v>2013</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1095,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1109,31 +1101,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>41456</v>
+        <v>41426</v>
       </c>
       <c r="B13" t="n">
-        <v>3.400000095367432</v>
+        <v>3.049999952316284</v>
       </c>
       <c r="C13" t="n">
-        <v>3.549999952316284</v>
+        <v>3.599999904632568</v>
       </c>
       <c r="D13" t="n">
-        <v>2.700000047683716</v>
+        <v>2.549999952316284</v>
       </c>
       <c r="E13" t="n">
-        <v>2.75</v>
+        <v>3.450000047683716</v>
       </c>
       <c r="F13" t="n">
-        <v>2.75</v>
+        <v>3.450000047683716</v>
       </c>
       <c r="G13" t="n">
-        <v>12242918</v>
+        <v>15815201</v>
       </c>
       <c r="H13" t="n">
         <v>2013</v>
       </c>
       <c r="I13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1148,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1162,31 +1154,31 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>41487</v>
+        <v>41456</v>
       </c>
       <c r="B14" t="n">
-        <v>2.650000095367432</v>
+        <v>3.400000095367432</v>
       </c>
       <c r="C14" t="n">
+        <v>3.549999952316284</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.700000047683716</v>
+      </c>
+      <c r="E14" t="n">
         <v>2.75</v>
       </c>
-      <c r="D14" t="n">
-        <v>2.099999904632568</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2.299999952316284</v>
-      </c>
       <c r="F14" t="n">
-        <v>2.299999952316284</v>
+        <v>2.75</v>
       </c>
       <c r="G14" t="n">
-        <v>8653942</v>
+        <v>12242918</v>
       </c>
       <c r="H14" t="n">
         <v>2013</v>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1201,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1215,31 +1207,31 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>41518</v>
+        <v>41487</v>
       </c>
       <c r="B15" t="n">
+        <v>2.650000095367432</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.099999904632568</v>
+      </c>
+      <c r="E15" t="n">
         <v>2.299999952316284</v>
       </c>
-      <c r="C15" t="n">
-        <v>3.150000095367432</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2.150000095367432</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2.849999904632568</v>
-      </c>
       <c r="F15" t="n">
-        <v>2.849999904632568</v>
+        <v>2.299999952316284</v>
       </c>
       <c r="G15" t="n">
-        <v>61942892</v>
+        <v>8653942</v>
       </c>
       <c r="H15" t="n">
         <v>2013</v>
       </c>
       <c r="I15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1254,10 +1246,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1268,31 +1260,31 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>41548</v>
+        <v>41518</v>
       </c>
       <c r="B16" t="n">
-        <v>2.900000095367432</v>
+        <v>2.299999952316284</v>
       </c>
       <c r="C16" t="n">
-        <v>3.75</v>
+        <v>3.150000095367432</v>
       </c>
       <c r="D16" t="n">
-        <v>2.799999952316284</v>
+        <v>2.150000095367432</v>
       </c>
       <c r="E16" t="n">
-        <v>3.650000095367432</v>
+        <v>2.849999904632568</v>
       </c>
       <c r="F16" t="n">
-        <v>3.650000095367432</v>
+        <v>2.849999904632568</v>
       </c>
       <c r="G16" t="n">
-        <v>29389167</v>
+        <v>61942892</v>
       </c>
       <c r="H16" t="n">
         <v>2013</v>
       </c>
       <c r="I16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1307,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1321,16 +1313,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>41579</v>
+        <v>41548</v>
       </c>
       <c r="B17" t="n">
-        <v>3.599999904632568</v>
+        <v>2.900000095367432</v>
       </c>
       <c r="C17" t="n">
-        <v>4.400000095367432</v>
+        <v>3.75</v>
       </c>
       <c r="D17" t="n">
-        <v>3.299999952316284</v>
+        <v>2.799999952316284</v>
       </c>
       <c r="E17" t="n">
         <v>3.650000095367432</v>
@@ -1339,13 +1331,13 @@
         <v>3.650000095367432</v>
       </c>
       <c r="G17" t="n">
-        <v>20033450</v>
+        <v>29389167</v>
       </c>
       <c r="H17" t="n">
         <v>2013</v>
       </c>
       <c r="I17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1360,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1374,31 +1366,31 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>41609</v>
+        <v>41579</v>
       </c>
       <c r="B18" t="n">
-        <v>3.700000047683716</v>
+        <v>3.599999904632568</v>
       </c>
       <c r="C18" t="n">
-        <v>3.950000047683716</v>
+        <v>4.400000095367432</v>
       </c>
       <c r="D18" t="n">
-        <v>3.400000095367432</v>
+        <v>3.299999952316284</v>
       </c>
       <c r="E18" t="n">
-        <v>3.5</v>
+        <v>3.650000095367432</v>
       </c>
       <c r="F18" t="n">
-        <v>3.5</v>
+        <v>3.650000095367432</v>
       </c>
       <c r="G18" t="n">
-        <v>7408898</v>
+        <v>20033450</v>
       </c>
       <c r="H18" t="n">
         <v>2013</v>
       </c>
       <c r="I18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1413,10 +1405,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1427,31 +1419,31 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>41640</v>
+        <v>41609</v>
       </c>
       <c r="B19" t="n">
-        <v>3.650000095367432</v>
+        <v>3.700000047683716</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3.950000047683716</v>
       </c>
       <c r="D19" t="n">
-        <v>2.75</v>
+        <v>3.400000095367432</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="G19" t="n">
-        <v>8678145</v>
+        <v>7408898</v>
       </c>
       <c r="H19" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1466,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1480,16 +1472,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>41671</v>
+        <v>41640</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>3.650000095367432</v>
       </c>
       <c r="C20" t="n">
-        <v>3.450000047683716</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>2.650000095367432</v>
+        <v>2.75</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
@@ -1498,13 +1490,13 @@
         <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>6740734</v>
+        <v>8678145</v>
       </c>
       <c r="H20" t="n">
         <v>2014</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1519,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -1533,31 +1525,31 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>41699</v>
+        <v>41671</v>
       </c>
       <c r="B21" t="n">
-        <v>2.950000047683716</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>3.150000095367432</v>
+        <v>3.450000047683716</v>
       </c>
       <c r="D21" t="n">
         <v>2.650000095367432</v>
       </c>
       <c r="E21" t="n">
-        <v>3.049999952316284</v>
+        <v>3</v>
       </c>
       <c r="F21" t="n">
-        <v>3.049999952316284</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>15995984</v>
+        <v>6740734</v>
       </c>
       <c r="H21" t="n">
         <v>2014</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1572,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O21" t="n">
         <v>2</v>
@@ -1581,36 +1573,36 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>41730</v>
+        <v>41699</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>2.950000047683716</v>
       </c>
       <c r="C22" t="n">
-        <v>4.050000190734863</v>
+        <v>3.150000095367432</v>
       </c>
       <c r="D22" t="n">
-        <v>2.900000095367432</v>
+        <v>2.650000095367432</v>
       </c>
       <c r="E22" t="n">
-        <v>3.650000095367432</v>
+        <v>3.049999952316284</v>
       </c>
       <c r="F22" t="n">
-        <v>3.650000095367432</v>
+        <v>3.049999952316284</v>
       </c>
       <c r="G22" t="n">
-        <v>12771093</v>
+        <v>15995984</v>
       </c>
       <c r="H22" t="n">
         <v>2014</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1625,45 +1617,45 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>41760</v>
+        <v>41730</v>
       </c>
       <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.050000190734863</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.900000095367432</v>
+      </c>
+      <c r="E23" t="n">
         <v>3.650000095367432</v>
       </c>
-      <c r="C23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="D23" t="n">
-        <v>3.349999904632568</v>
-      </c>
-      <c r="E23" t="n">
-        <v>6.199999809265137</v>
-      </c>
       <c r="F23" t="n">
-        <v>6.199999809265137</v>
+        <v>3.650000095367432</v>
       </c>
       <c r="G23" t="n">
-        <v>27561019</v>
+        <v>12771093</v>
       </c>
       <c r="H23" t="n">
         <v>2014</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1678,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1692,31 +1684,31 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>41791</v>
+        <v>41760</v>
       </c>
       <c r="B24" t="n">
-        <v>6.150000095367432</v>
+        <v>3.650000095367432</v>
       </c>
       <c r="C24" t="n">
-        <v>6.949999809265137</v>
+        <v>6.5</v>
       </c>
       <c r="D24" t="n">
-        <v>5.550000190734863</v>
+        <v>3.349999904632568</v>
       </c>
       <c r="E24" t="n">
-        <v>6.800000190734863</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="F24" t="n">
-        <v>6.800000190734863</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="G24" t="n">
-        <v>36137778</v>
+        <v>27561019</v>
       </c>
       <c r="H24" t="n">
         <v>2014</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1731,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -1740,36 +1732,36 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>41821</v>
+        <v>41791</v>
       </c>
       <c r="B25" t="n">
-        <v>7.099999904632568</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="C25" t="n">
-        <v>7.5</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="D25" t="n">
-        <v>4.849999904632568</v>
+        <v>5.550000190734863</v>
       </c>
       <c r="E25" t="n">
-        <v>5.5</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="F25" t="n">
-        <v>5.5</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="G25" t="n">
-        <v>14235526</v>
+        <v>36137778</v>
       </c>
       <c r="H25" t="n">
         <v>2014</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1784,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -1798,31 +1790,31 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>41852</v>
+        <v>41821</v>
       </c>
       <c r="B26" t="n">
-        <v>5.699999809265137</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="C26" t="n">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="D26" t="n">
-        <v>4.699999809265137</v>
+        <v>4.849999904632568</v>
       </c>
       <c r="E26" t="n">
-        <v>4.800000190734863</v>
+        <v>5.5</v>
       </c>
       <c r="F26" t="n">
-        <v>4.800000190734863</v>
+        <v>5.5</v>
       </c>
       <c r="G26" t="n">
-        <v>11004972</v>
+        <v>14235526</v>
       </c>
       <c r="H26" t="n">
         <v>2014</v>
       </c>
       <c r="I26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1837,45 +1829,45 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>41883</v>
+        <v>41852</v>
       </c>
       <c r="B27" t="n">
-        <v>4.849999904632568</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="C27" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="D27" t="n">
-        <v>4.25</v>
+        <v>4.699999809265137</v>
       </c>
       <c r="E27" t="n">
-        <v>4.400000095367432</v>
+        <v>4.800000190734863</v>
       </c>
       <c r="F27" t="n">
-        <v>4.400000095367432</v>
+        <v>4.800000190734863</v>
       </c>
       <c r="G27" t="n">
-        <v>81409762</v>
+        <v>11004972</v>
       </c>
       <c r="H27" t="n">
         <v>2014</v>
       </c>
       <c r="I27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1890,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -1904,31 +1896,31 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>41913</v>
+        <v>41883</v>
       </c>
       <c r="B28" t="n">
+        <v>4.849999904632568</v>
+      </c>
+      <c r="C28" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E28" t="n">
         <v>4.400000095367432</v>
       </c>
-      <c r="C28" t="n">
-        <v>4.599999904632568</v>
-      </c>
-      <c r="D28" t="n">
-        <v>3.700000047683716</v>
-      </c>
-      <c r="E28" t="n">
-        <v>3.799999952316284</v>
-      </c>
       <c r="F28" t="n">
-        <v>3.799999952316284</v>
+        <v>4.400000095367432</v>
       </c>
       <c r="G28" t="n">
-        <v>33022968</v>
+        <v>81409762</v>
       </c>
       <c r="H28" t="n">
         <v>2014</v>
       </c>
       <c r="I28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1943,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -1957,31 +1949,31 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>41944</v>
+        <v>41913</v>
       </c>
       <c r="B29" t="n">
-        <v>3.849999904632568</v>
+        <v>4.400000095367432</v>
       </c>
       <c r="C29" t="n">
-        <v>4.199999809265137</v>
+        <v>4.599999904632568</v>
       </c>
       <c r="D29" t="n">
-        <v>3.400000095367432</v>
+        <v>3.700000047683716</v>
       </c>
       <c r="E29" t="n">
-        <v>3.5</v>
+        <v>3.799999952316284</v>
       </c>
       <c r="F29" t="n">
-        <v>3.5</v>
+        <v>3.799999952316284</v>
       </c>
       <c r="G29" t="n">
-        <v>29722985</v>
+        <v>33022968</v>
       </c>
       <c r="H29" t="n">
         <v>2014</v>
       </c>
       <c r="I29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1996,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2005,36 +1997,36 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>41974</v>
+        <v>41944</v>
       </c>
       <c r="B30" t="n">
+        <v>3.849999904632568</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4.199999809265137</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3.400000095367432</v>
+      </c>
+      <c r="E30" t="n">
         <v>3.5</v>
       </c>
-      <c r="C30" t="n">
-        <v>3.900000095367432</v>
-      </c>
-      <c r="D30" t="n">
-        <v>2.849999904632568</v>
-      </c>
-      <c r="E30" t="n">
-        <v>3</v>
-      </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="G30" t="n">
-        <v>12878876</v>
+        <v>29722985</v>
       </c>
       <c r="H30" t="n">
         <v>2014</v>
       </c>
       <c r="I30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2049,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2058,36 +2050,36 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>42005</v>
+        <v>41974</v>
       </c>
       <c r="B31" t="n">
-        <v>2.950000047683716</v>
+        <v>3.5</v>
       </c>
       <c r="C31" t="n">
-        <v>3.25</v>
+        <v>3.900000095367432</v>
       </c>
       <c r="D31" t="n">
-        <v>2.200000047683716</v>
+        <v>2.849999904632568</v>
       </c>
       <c r="E31" t="n">
-        <v>3.049999952316284</v>
+        <v>3</v>
       </c>
       <c r="F31" t="n">
-        <v>3.049999952316284</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>27006907</v>
+        <v>12878876</v>
       </c>
       <c r="H31" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2102,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2116,31 +2108,31 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>42036</v>
+        <v>42005</v>
       </c>
       <c r="B32" t="n">
-        <v>3.099999904632568</v>
+        <v>2.950000047683716</v>
       </c>
       <c r="C32" t="n">
-        <v>3.400000095367432</v>
+        <v>3.25</v>
       </c>
       <c r="D32" t="n">
-        <v>2.5</v>
+        <v>2.200000047683716</v>
       </c>
       <c r="E32" t="n">
-        <v>2.799999952316284</v>
+        <v>3.049999952316284</v>
       </c>
       <c r="F32" t="n">
-        <v>2.799999952316284</v>
+        <v>3.049999952316284</v>
       </c>
       <c r="G32" t="n">
-        <v>34018933</v>
+        <v>27006907</v>
       </c>
       <c r="H32" t="n">
         <v>2015</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2155,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2169,31 +2161,31 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>42064</v>
+        <v>42036</v>
       </c>
       <c r="B33" t="n">
+        <v>3.099999904632568</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3.400000095367432</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E33" t="n">
         <v>2.799999952316284</v>
       </c>
-      <c r="C33" t="n">
-        <v>2.849999904632568</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1.850000023841858</v>
-      </c>
-      <c r="E33" t="n">
-        <v>2.099999904632568</v>
-      </c>
       <c r="F33" t="n">
-        <v>2.099999904632568</v>
+        <v>2.799999952316284</v>
       </c>
       <c r="G33" t="n">
-        <v>34724962</v>
+        <v>34018933</v>
       </c>
       <c r="H33" t="n">
         <v>2015</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2208,10 +2200,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -2222,16 +2214,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>42095</v>
+        <v>42064</v>
       </c>
       <c r="B34" t="n">
-        <v>2.049999952316284</v>
+        <v>2.799999952316284</v>
       </c>
       <c r="C34" t="n">
-        <v>2.900000095367432</v>
+        <v>2.849999904632568</v>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>1.850000023841858</v>
       </c>
       <c r="E34" t="n">
         <v>2.099999904632568</v>
@@ -2240,13 +2232,13 @@
         <v>2.099999904632568</v>
       </c>
       <c r="G34" t="n">
-        <v>23091374</v>
+        <v>34724962</v>
       </c>
       <c r="H34" t="n">
         <v>2015</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -2261,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -2275,31 +2267,31 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>42125</v>
+        <v>42095</v>
       </c>
       <c r="B35" t="n">
+        <v>2.049999952316284</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.900000095367432</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" t="n">
         <v>2.099999904632568</v>
       </c>
-      <c r="C35" t="n">
-        <v>2.549999952316284</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1.950000047683716</v>
-      </c>
-      <c r="E35" t="n">
-        <v>2.150000095367432</v>
-      </c>
       <c r="F35" t="n">
-        <v>2.150000095367432</v>
+        <v>2.099999904632568</v>
       </c>
       <c r="G35" t="n">
-        <v>19692886</v>
+        <v>23091374</v>
       </c>
       <c r="H35" t="n">
         <v>2015</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2314,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -2328,31 +2320,31 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>42156</v>
+        <v>42125</v>
       </c>
       <c r="B36" t="n">
+        <v>2.099999904632568</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.549999952316284</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.950000047683716</v>
+      </c>
+      <c r="E36" t="n">
         <v>2.150000095367432</v>
       </c>
-      <c r="C36" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D36" t="n">
-        <v>2</v>
-      </c>
-      <c r="E36" t="n">
-        <v>2.049999952316284</v>
-      </c>
       <c r="F36" t="n">
-        <v>2.049999952316284</v>
+        <v>2.150000095367432</v>
       </c>
       <c r="G36" t="n">
-        <v>20454827</v>
+        <v>19692886</v>
       </c>
       <c r="H36" t="n">
         <v>2015</v>
       </c>
       <c r="I36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -2367,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2381,31 +2373,31 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>42186</v>
+        <v>42156</v>
       </c>
       <c r="B37" t="n">
-        <v>2.099999904632568</v>
+        <v>2.150000095367432</v>
       </c>
       <c r="C37" t="n">
-        <v>2.799999952316284</v>
+        <v>2.5</v>
       </c>
       <c r="D37" t="n">
         <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>2.5</v>
+        <v>2.049999952316284</v>
       </c>
       <c r="F37" t="n">
-        <v>2.5</v>
+        <v>2.049999952316284</v>
       </c>
       <c r="G37" t="n">
-        <v>19810604</v>
+        <v>20454827</v>
       </c>
       <c r="H37" t="n">
         <v>2015</v>
       </c>
       <c r="I37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -2420,45 +2412,45 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>42217</v>
+        <v>42186</v>
       </c>
       <c r="B38" t="n">
-        <v>2.549999952316284</v>
+        <v>2.099999904632568</v>
       </c>
       <c r="C38" t="n">
-        <v>2.849999904632568</v>
+        <v>2.799999952316284</v>
       </c>
       <c r="D38" t="n">
         <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>2.049999952316284</v>
+        <v>2.5</v>
       </c>
       <c r="F38" t="n">
-        <v>2.049999952316284</v>
+        <v>2.5</v>
       </c>
       <c r="G38" t="n">
-        <v>14158292</v>
+        <v>19810604</v>
       </c>
       <c r="H38" t="n">
         <v>2015</v>
       </c>
       <c r="I38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -2473,45 +2465,45 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>42248</v>
+        <v>42217</v>
       </c>
       <c r="B39" t="n">
-        <v>2.099999904632568</v>
+        <v>2.549999952316284</v>
       </c>
       <c r="C39" t="n">
-        <v>2.299999952316284</v>
+        <v>2.849999904632568</v>
       </c>
       <c r="D39" t="n">
-        <v>1.850000023841858</v>
+        <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>2.099999904632568</v>
+        <v>2.049999952316284</v>
       </c>
       <c r="F39" t="n">
-        <v>2.099999904632568</v>
+        <v>2.049999952316284</v>
       </c>
       <c r="G39" t="n">
-        <v>37066885</v>
+        <v>14158292</v>
       </c>
       <c r="H39" t="n">
         <v>2015</v>
       </c>
       <c r="I39" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -2526,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -2540,31 +2532,31 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>42278</v>
+        <v>42248</v>
       </c>
       <c r="B40" t="n">
-        <v>2.200000047683716</v>
+        <v>2.099999904632568</v>
       </c>
       <c r="C40" t="n">
-        <v>3.299999952316284</v>
+        <v>2.299999952316284</v>
       </c>
       <c r="D40" t="n">
-        <v>2.049999952316284</v>
+        <v>1.850000023841858</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>2.099999904632568</v>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>2.099999904632568</v>
       </c>
       <c r="G40" t="n">
-        <v>56927321</v>
+        <v>37066885</v>
       </c>
       <c r="H40" t="n">
         <v>2015</v>
       </c>
       <c r="I40" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2579,10 +2571,10 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -2593,31 +2585,31 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="B41" t="n">
-        <v>3.049999952316284</v>
+        <v>2.200000047683716</v>
       </c>
       <c r="C41" t="n">
-        <v>3.650000095367432</v>
+        <v>3.299999952316284</v>
       </c>
       <c r="D41" t="n">
-        <v>2.950000047683716</v>
+        <v>2.049999952316284</v>
       </c>
       <c r="E41" t="n">
-        <v>3.400000095367432</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>3.400000095367432</v>
+        <v>3</v>
       </c>
       <c r="G41" t="n">
-        <v>46003254</v>
+        <v>56927321</v>
       </c>
       <c r="H41" t="n">
         <v>2015</v>
       </c>
       <c r="I41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2632,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -2646,31 +2638,31 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>42339</v>
+        <v>42309</v>
       </c>
       <c r="B42" t="n">
-        <v>3.450000047683716</v>
+        <v>3.049999952316284</v>
       </c>
       <c r="C42" t="n">
         <v>3.650000095367432</v>
       </c>
       <c r="D42" t="n">
-        <v>3.200000047683716</v>
+        <v>2.950000047683716</v>
       </c>
       <c r="E42" t="n">
-        <v>3.299999952316284</v>
+        <v>3.400000095367432</v>
       </c>
       <c r="F42" t="n">
-        <v>3.299999952316284</v>
+        <v>3.400000095367432</v>
       </c>
       <c r="G42" t="n">
-        <v>74194673</v>
+        <v>46003254</v>
       </c>
       <c r="H42" t="n">
         <v>2015</v>
       </c>
       <c r="I42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2685,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -2699,31 +2691,31 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>42370</v>
+        <v>42339</v>
       </c>
       <c r="B43" t="n">
+        <v>3.450000047683716</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3.650000095367432</v>
+      </c>
+      <c r="D43" t="n">
         <v>3.200000047683716</v>
       </c>
-      <c r="C43" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="D43" t="n">
-        <v>3.099999904632568</v>
-      </c>
       <c r="E43" t="n">
-        <v>3.200000047683716</v>
+        <v>3.299999952316284</v>
       </c>
       <c r="F43" t="n">
-        <v>3.200000047683716</v>
+        <v>3.299999952316284</v>
       </c>
       <c r="G43" t="n">
-        <v>149159774</v>
+        <v>74194673</v>
       </c>
       <c r="H43" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -2738,27 +2730,27 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>42401</v>
+        <v>42370</v>
       </c>
       <c r="B44" t="n">
-        <v>3.25</v>
+        <v>3.200000047683716</v>
       </c>
       <c r="C44" t="n">
-        <v>3.349999904632568</v>
+        <v>3.75</v>
       </c>
       <c r="D44" t="n">
         <v>3.099999904632568</v>
@@ -2770,13 +2762,13 @@
         <v>3.200000047683716</v>
       </c>
       <c r="G44" t="n">
-        <v>111029097</v>
+        <v>149159774</v>
       </c>
       <c r="H44" t="n">
         <v>2016</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
@@ -2791,45 +2783,45 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>42430</v>
+        <v>42401</v>
       </c>
       <c r="B45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3.349999904632568</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3.099999904632568</v>
+      </c>
+      <c r="E45" t="n">
         <v>3.200000047683716</v>
       </c>
-      <c r="C45" t="n">
-        <v>3.599999904632568</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="F45" t="n">
         <v>3.200000047683716</v>
       </c>
-      <c r="E45" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F45" t="n">
-        <v>3.5</v>
-      </c>
       <c r="G45" t="n">
-        <v>25900654</v>
+        <v>111029097</v>
       </c>
       <c r="H45" t="n">
         <v>2016</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -2844,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -2858,31 +2850,31 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>42461</v>
+        <v>42430</v>
       </c>
       <c r="B46" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3.599999904632568</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="E46" t="n">
         <v>3.5</v>
       </c>
-      <c r="C46" t="n">
-        <v>3.849999904632568</v>
-      </c>
-      <c r="D46" t="n">
-        <v>3.349999904632568</v>
-      </c>
-      <c r="E46" t="n">
-        <v>3.549999952316284</v>
-      </c>
       <c r="F46" t="n">
-        <v>3.549999952316284</v>
+        <v>3.5</v>
       </c>
       <c r="G46" t="n">
-        <v>22635534</v>
+        <v>25900654</v>
       </c>
       <c r="H46" t="n">
         <v>2016</v>
       </c>
       <c r="I46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -2897,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -2911,31 +2903,31 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>42491</v>
+        <v>42461</v>
       </c>
       <c r="B47" t="n">
         <v>3.5</v>
       </c>
       <c r="C47" t="n">
-        <v>4.349999904632568</v>
+        <v>3.849999904632568</v>
       </c>
       <c r="D47" t="n">
-        <v>3.450000047683716</v>
+        <v>3.349999904632568</v>
       </c>
       <c r="E47" t="n">
-        <v>3.700000047683716</v>
+        <v>3.549999952316284</v>
       </c>
       <c r="F47" t="n">
-        <v>3.700000047683716</v>
+        <v>3.549999952316284</v>
       </c>
       <c r="G47" t="n">
-        <v>54489198</v>
+        <v>22635534</v>
       </c>
       <c r="H47" t="n">
         <v>2016</v>
       </c>
       <c r="I47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -2950,10 +2942,10 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
@@ -2964,31 +2956,31 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>42522</v>
+        <v>42491</v>
       </c>
       <c r="B48" t="n">
-        <v>3.799999952316284</v>
+        <v>3.5</v>
       </c>
       <c r="C48" t="n">
-        <v>3.900000095367432</v>
+        <v>4.349999904632568</v>
       </c>
       <c r="D48" t="n">
-        <v>3.5</v>
+        <v>3.450000047683716</v>
       </c>
       <c r="E48" t="n">
-        <v>3.75</v>
+        <v>3.700000047683716</v>
       </c>
       <c r="F48" t="n">
-        <v>3.75</v>
+        <v>3.700000047683716</v>
       </c>
       <c r="G48" t="n">
-        <v>15433275</v>
+        <v>54489198</v>
       </c>
       <c r="H48" t="n">
         <v>2016</v>
       </c>
       <c r="I48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
@@ -3003,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
@@ -3017,16 +3009,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>42552</v>
+        <v>42522</v>
       </c>
       <c r="B49" t="n">
         <v>3.799999952316284</v>
       </c>
       <c r="C49" t="n">
-        <v>3.950000047683716</v>
+        <v>3.900000095367432</v>
       </c>
       <c r="D49" t="n">
-        <v>3.450000047683716</v>
+        <v>3.5</v>
       </c>
       <c r="E49" t="n">
         <v>3.75</v>
@@ -3035,13 +3027,13 @@
         <v>3.75</v>
       </c>
       <c r="G49" t="n">
-        <v>23702617</v>
+        <v>15433275</v>
       </c>
       <c r="H49" t="n">
         <v>2016</v>
       </c>
       <c r="I49" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
@@ -3056,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -3070,31 +3062,31 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>42583</v>
+        <v>42552</v>
       </c>
       <c r="B50" t="n">
+        <v>3.799999952316284</v>
+      </c>
+      <c r="C50" t="n">
+        <v>3.950000047683716</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3.450000047683716</v>
+      </c>
+      <c r="E50" t="n">
         <v>3.75</v>
       </c>
-      <c r="C50" t="n">
-        <v>3.799999952316284</v>
-      </c>
-      <c r="D50" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E50" t="n">
-        <v>3.599999904632568</v>
-      </c>
       <c r="F50" t="n">
-        <v>3.599999904632568</v>
+        <v>3.75</v>
       </c>
       <c r="G50" t="n">
-        <v>18119141</v>
+        <v>23702617</v>
       </c>
       <c r="H50" t="n">
         <v>2016</v>
       </c>
       <c r="I50" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -3109,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -3123,31 +3115,31 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>42614</v>
+        <v>42583</v>
       </c>
       <c r="B51" t="n">
-        <v>3.549999952316284</v>
+        <v>3.75</v>
       </c>
       <c r="C51" t="n">
-        <v>3.700000047683716</v>
+        <v>3.799999952316284</v>
       </c>
       <c r="D51" t="n">
-        <v>3.049999952316284</v>
+        <v>3.5</v>
       </c>
       <c r="E51" t="n">
-        <v>3.299999952316284</v>
+        <v>3.599999904632568</v>
       </c>
       <c r="F51" t="n">
-        <v>3.299999952316284</v>
+        <v>3.599999904632568</v>
       </c>
       <c r="G51" t="n">
-        <v>18953062</v>
+        <v>18119141</v>
       </c>
       <c r="H51" t="n">
         <v>2016</v>
       </c>
       <c r="I51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -3162,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -3171,21 +3163,21 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>42644</v>
+        <v>42614</v>
       </c>
       <c r="B52" t="n">
-        <v>3.349999904632568</v>
+        <v>3.549999952316284</v>
       </c>
       <c r="C52" t="n">
-        <v>3.5</v>
+        <v>3.700000047683716</v>
       </c>
       <c r="D52" t="n">
-        <v>3.200000047683716</v>
+        <v>3.049999952316284</v>
       </c>
       <c r="E52" t="n">
         <v>3.299999952316284</v>
@@ -3194,13 +3186,13 @@
         <v>3.299999952316284</v>
       </c>
       <c r="G52" t="n">
-        <v>15195727</v>
+        <v>18953062</v>
       </c>
       <c r="H52" t="n">
         <v>2016</v>
       </c>
       <c r="I52" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -3215,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -3224,36 +3216,36 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>42675</v>
+        <v>42644</v>
       </c>
       <c r="B53" t="n">
-        <v>3.400000095367432</v>
+        <v>3.349999904632568</v>
       </c>
       <c r="C53" t="n">
-        <v>3.400000095367432</v>
+        <v>3.5</v>
       </c>
       <c r="D53" t="n">
-        <v>2.849999904632568</v>
+        <v>3.200000047683716</v>
       </c>
       <c r="E53" t="n">
-        <v>3.049999952316284</v>
+        <v>3.299999952316284</v>
       </c>
       <c r="F53" t="n">
-        <v>3.049999952316284</v>
+        <v>3.299999952316284</v>
       </c>
       <c r="G53" t="n">
-        <v>36764854</v>
+        <v>15195727</v>
       </c>
       <c r="H53" t="n">
         <v>2016</v>
       </c>
       <c r="I53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -3268,10 +3260,10 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -3282,31 +3274,31 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>42705</v>
+        <v>42675</v>
       </c>
       <c r="B54" t="n">
+        <v>3.400000095367432</v>
+      </c>
+      <c r="C54" t="n">
+        <v>3.400000095367432</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2.849999904632568</v>
+      </c>
+      <c r="E54" t="n">
         <v>3.049999952316284</v>
       </c>
-      <c r="C54" t="n">
-        <v>3.150000095367432</v>
-      </c>
-      <c r="D54" t="n">
-        <v>2.950000047683716</v>
-      </c>
-      <c r="E54" t="n">
-        <v>3</v>
-      </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>3.049999952316284</v>
       </c>
       <c r="G54" t="n">
-        <v>8629703</v>
+        <v>36764854</v>
       </c>
       <c r="H54" t="n">
         <v>2016</v>
       </c>
       <c r="I54" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -3321,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -3335,31 +3327,31 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>42736</v>
+        <v>42705</v>
       </c>
       <c r="B55" t="n">
+        <v>3.049999952316284</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3.150000095367432</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.950000047683716</v>
+      </c>
+      <c r="E55" t="n">
         <v>3</v>
       </c>
-      <c r="C55" t="n">
-        <v>3.099999904632568</v>
-      </c>
-      <c r="D55" t="n">
-        <v>2.900000095367432</v>
-      </c>
-      <c r="E55" t="n">
-        <v>2.950000047683716</v>
-      </c>
       <c r="F55" t="n">
-        <v>2.950000047683716</v>
+        <v>3</v>
       </c>
       <c r="G55" t="n">
-        <v>6674058</v>
+        <v>8629703</v>
       </c>
       <c r="H55" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -3374,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -3388,31 +3380,31 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>42767</v>
+        <v>42736</v>
       </c>
       <c r="B56" t="n">
-        <v>2.950000047683716</v>
+        <v>3</v>
       </c>
       <c r="C56" t="n">
-        <v>3.299999952316284</v>
+        <v>3.099999904632568</v>
       </c>
       <c r="D56" t="n">
         <v>2.900000095367432</v>
       </c>
       <c r="E56" t="n">
-        <v>3.200000047683716</v>
+        <v>2.950000047683716</v>
       </c>
       <c r="F56" t="n">
-        <v>3.200000047683716</v>
+        <v>2.950000047683716</v>
       </c>
       <c r="G56" t="n">
-        <v>16630199</v>
+        <v>6674058</v>
       </c>
       <c r="H56" t="n">
         <v>2017</v>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -3427,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -3441,31 +3433,31 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>42795</v>
+        <v>42767</v>
       </c>
       <c r="B57" t="n">
+        <v>2.950000047683716</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3.299999952316284</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2.900000095367432</v>
+      </c>
+      <c r="E57" t="n">
         <v>3.200000047683716</v>
       </c>
-      <c r="C57" t="n">
-        <v>3.900000095367432</v>
-      </c>
-      <c r="D57" t="n">
+      <c r="F57" t="n">
         <v>3.200000047683716</v>
       </c>
-      <c r="E57" t="n">
-        <v>3.900000095367432</v>
-      </c>
-      <c r="F57" t="n">
-        <v>3.900000095367432</v>
-      </c>
       <c r="G57" t="n">
-        <v>14658387</v>
+        <v>16630199</v>
       </c>
       <c r="H57" t="n">
         <v>2017</v>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
@@ -3480,45 +3472,45 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>42826</v>
+        <v>42795</v>
       </c>
       <c r="B58" t="n">
-        <v>4.099999904632568</v>
+        <v>3.200000047683716</v>
       </c>
       <c r="C58" t="n">
-        <v>5.099999904632568</v>
+        <v>3.900000095367432</v>
       </c>
       <c r="D58" t="n">
-        <v>3.700000047683716</v>
+        <v>3.200000047683716</v>
       </c>
       <c r="E58" t="n">
-        <v>4.099999904632568</v>
+        <v>3.900000095367432</v>
       </c>
       <c r="F58" t="n">
-        <v>4.099999904632568</v>
+        <v>3.900000095367432</v>
       </c>
       <c r="G58" t="n">
-        <v>59920383</v>
+        <v>14658387</v>
       </c>
       <c r="H58" t="n">
         <v>2017</v>
       </c>
       <c r="I58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -3533,45 +3525,45 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>42856</v>
+        <v>42826</v>
       </c>
       <c r="B59" t="n">
         <v>4.099999904632568</v>
       </c>
       <c r="C59" t="n">
-        <v>4.199999809265137</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="D59" t="n">
-        <v>3.5</v>
+        <v>3.700000047683716</v>
       </c>
       <c r="E59" t="n">
-        <v>3.700000047683716</v>
+        <v>4.099999904632568</v>
       </c>
       <c r="F59" t="n">
-        <v>3.700000047683716</v>
+        <v>4.099999904632568</v>
       </c>
       <c r="G59" t="n">
-        <v>21262257</v>
+        <v>59920383</v>
       </c>
       <c r="H59" t="n">
         <v>2017</v>
       </c>
       <c r="I59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
@@ -3586,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -3600,31 +3592,31 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>42887</v>
+        <v>42856</v>
       </c>
       <c r="B60" t="n">
+        <v>4.099999904632568</v>
+      </c>
+      <c r="C60" t="n">
+        <v>4.199999809265137</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E60" t="n">
         <v>3.700000047683716</v>
       </c>
-      <c r="C60" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="D60" t="n">
-        <v>3.599999904632568</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4.199999809265137</v>
-      </c>
       <c r="F60" t="n">
-        <v>4.199999809265137</v>
+        <v>3.700000047683716</v>
       </c>
       <c r="G60" t="n">
-        <v>17888724</v>
+        <v>21262257</v>
       </c>
       <c r="H60" t="n">
         <v>2017</v>
       </c>
       <c r="I60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -3639,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -3653,31 +3645,31 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>42917</v>
+        <v>42887</v>
       </c>
       <c r="B61" t="n">
+        <v>3.700000047683716</v>
+      </c>
+      <c r="C61" t="n">
         <v>4.25</v>
       </c>
-      <c r="C61" t="n">
-        <v>6.099999904632568</v>
-      </c>
       <c r="D61" t="n">
-        <v>3.650000095367432</v>
+        <v>3.599999904632568</v>
       </c>
       <c r="E61" t="n">
-        <v>5.75</v>
+        <v>4.199999809265137</v>
       </c>
       <c r="F61" t="n">
-        <v>5.75</v>
+        <v>4.199999809265137</v>
       </c>
       <c r="G61" t="n">
-        <v>85541642</v>
+        <v>17888724</v>
       </c>
       <c r="H61" t="n">
         <v>2017</v>
       </c>
       <c r="I61" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
@@ -3692,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -3706,16 +3698,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>42948</v>
+        <v>42917</v>
       </c>
       <c r="B62" t="n">
-        <v>5.75</v>
+        <v>4.25</v>
       </c>
       <c r="C62" t="n">
-        <v>5.849999904632568</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="D62" t="n">
-        <v>5.5</v>
+        <v>3.650000095367432</v>
       </c>
       <c r="E62" t="n">
         <v>5.75</v>
@@ -3724,13 +3716,13 @@
         <v>5.75</v>
       </c>
       <c r="G62" t="n">
-        <v>22647717</v>
+        <v>85541642</v>
       </c>
       <c r="H62" t="n">
         <v>2017</v>
       </c>
       <c r="I62" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
@@ -3745,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -3759,31 +3751,31 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>42979</v>
+        <v>42948</v>
       </c>
       <c r="B63" t="n">
         <v>5.75</v>
       </c>
       <c r="C63" t="n">
-        <v>6.199999809265137</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="D63" t="n">
-        <v>5.699999809265137</v>
+        <v>5.5</v>
       </c>
       <c r="E63" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="F63" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="G63" t="n">
-        <v>32309325</v>
+        <v>22647717</v>
       </c>
       <c r="H63" t="n">
         <v>2017</v>
       </c>
       <c r="I63" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -3798,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -3812,31 +3804,31 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>43009</v>
+        <v>42979</v>
       </c>
       <c r="B64" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="C64" t="n">
+        <v>6.199999809265137</v>
+      </c>
+      <c r="D64" t="n">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="E64" t="n">
         <v>6</v>
       </c>
-      <c r="C64" t="n">
-        <v>9.449999809265137</v>
-      </c>
-      <c r="D64" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="E64" t="n">
-        <v>8.699999809265137</v>
-      </c>
       <c r="F64" t="n">
-        <v>8.699999809265137</v>
+        <v>6</v>
       </c>
       <c r="G64" t="n">
-        <v>28943494</v>
+        <v>32309325</v>
       </c>
       <c r="H64" t="n">
         <v>2017</v>
       </c>
       <c r="I64" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
@@ -3851,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -3865,31 +3857,31 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>43040</v>
+        <v>43009</v>
       </c>
       <c r="B65" t="n">
-        <v>8.949999809265137</v>
+        <v>6</v>
       </c>
       <c r="C65" t="n">
-        <v>11.75</v>
+        <v>9.449999809265137</v>
       </c>
       <c r="D65" t="n">
-        <v>7.949999809265137</v>
+        <v>5.5</v>
       </c>
       <c r="E65" t="n">
-        <v>9.5</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="F65" t="n">
-        <v>9.5</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="G65" t="n">
-        <v>34269654</v>
+        <v>28943494</v>
       </c>
       <c r="H65" t="n">
         <v>2017</v>
       </c>
       <c r="I65" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
@@ -3904,10 +3896,10 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
@@ -3918,31 +3910,31 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="B66" t="n">
-        <v>9.600000381469727</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="C66" t="n">
-        <v>9.600000381469727</v>
+        <v>11.75</v>
       </c>
       <c r="D66" t="n">
-        <v>7.599999904632568</v>
+        <v>7.949999809265137</v>
       </c>
       <c r="E66" t="n">
-        <v>7.650000095367432</v>
+        <v>9.5</v>
       </c>
       <c r="F66" t="n">
-        <v>7.650000095367432</v>
+        <v>9.5</v>
       </c>
       <c r="G66" t="n">
-        <v>8806849</v>
+        <v>34269654</v>
       </c>
       <c r="H66" t="n">
         <v>2017</v>
       </c>
       <c r="I66" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J66" t="n">
         <v>1</v>
@@ -3957,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
@@ -3971,31 +3963,31 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>43101</v>
+        <v>43070</v>
       </c>
       <c r="B67" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="C67" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="D67" t="n">
+        <v>7.599999904632568</v>
+      </c>
+      <c r="E67" t="n">
         <v>7.650000095367432</v>
       </c>
-      <c r="C67" t="n">
-        <v>8.100000381469727</v>
-      </c>
-      <c r="D67" t="n">
-        <v>6.199999809265137</v>
-      </c>
-      <c r="E67" t="n">
-        <v>6.300000190734863</v>
-      </c>
       <c r="F67" t="n">
-        <v>6.300000190734863</v>
+        <v>7.650000095367432</v>
       </c>
       <c r="G67" t="n">
-        <v>10995276</v>
+        <v>8806849</v>
       </c>
       <c r="H67" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J67" t="n">
         <v>1</v>
@@ -4010,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -4024,31 +4016,31 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>43132</v>
+        <v>43101</v>
       </c>
       <c r="B68" t="n">
-        <v>6.25</v>
+        <v>7.650000095367432</v>
       </c>
       <c r="C68" t="n">
-        <v>6.400000095367432</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="D68" t="n">
-        <v>5</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="E68" t="n">
-        <v>5.25</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="F68" t="n">
-        <v>5.25</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="G68" t="n">
-        <v>9658582</v>
+        <v>10995276</v>
       </c>
       <c r="H68" t="n">
         <v>2018</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -4063,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -4077,31 +4069,31 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="B69" t="n">
-        <v>5.150000095367432</v>
+        <v>6.25</v>
       </c>
       <c r="C69" t="n">
-        <v>6.699999809265137</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="D69" t="n">
-        <v>4.650000095367432</v>
+        <v>5</v>
       </c>
       <c r="E69" t="n">
-        <v>5.550000190734863</v>
+        <v>5.25</v>
       </c>
       <c r="F69" t="n">
-        <v>5.550000190734863</v>
+        <v>5.25</v>
       </c>
       <c r="G69" t="n">
-        <v>8976556</v>
+        <v>9658582</v>
       </c>
       <c r="H69" t="n">
         <v>2018</v>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -4116,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -4125,36 +4117,36 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>43191</v>
+        <v>43160</v>
       </c>
       <c r="B70" t="n">
-        <v>5.5</v>
+        <v>5.150000095367432</v>
       </c>
       <c r="C70" t="n">
-        <v>5.900000095367432</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="D70" t="n">
-        <v>4.800000190734863</v>
+        <v>4.650000095367432</v>
       </c>
       <c r="E70" t="n">
-        <v>5.150000095367432</v>
+        <v>5.550000190734863</v>
       </c>
       <c r="F70" t="n">
-        <v>5.150000095367432</v>
+        <v>5.550000190734863</v>
       </c>
       <c r="G70" t="n">
-        <v>13411578</v>
+        <v>8976556</v>
       </c>
       <c r="H70" t="n">
         <v>2018</v>
       </c>
       <c r="I70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
@@ -4169,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -4178,36 +4170,36 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43221</v>
+        <v>43191</v>
       </c>
       <c r="B71" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C71" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="D71" t="n">
+        <v>4.800000190734863</v>
+      </c>
+      <c r="E71" t="n">
         <v>5.150000095367432</v>
       </c>
-      <c r="C71" t="n">
-        <v>6.349999904632568</v>
-      </c>
-      <c r="D71" t="n">
-        <v>4.449999809265137</v>
-      </c>
-      <c r="E71" t="n">
-        <v>4.550000190734863</v>
-      </c>
       <c r="F71" t="n">
-        <v>4.550000190734863</v>
+        <v>5.150000095367432</v>
       </c>
       <c r="G71" t="n">
-        <v>26009291</v>
+        <v>13411578</v>
       </c>
       <c r="H71" t="n">
         <v>2018</v>
       </c>
       <c r="I71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -4222,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -4236,31 +4228,31 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43252</v>
+        <v>43221</v>
       </c>
       <c r="B72" t="n">
-        <v>4.5</v>
+        <v>5.150000095367432</v>
       </c>
       <c r="C72" t="n">
-        <v>4.949999809265137</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="D72" t="n">
-        <v>3.549999952316284</v>
+        <v>4.449999809265137</v>
       </c>
       <c r="E72" t="n">
-        <v>3.799999952316284</v>
+        <v>4.550000190734863</v>
       </c>
       <c r="F72" t="n">
-        <v>3.799999952316284</v>
+        <v>4.550000190734863</v>
       </c>
       <c r="G72" t="n">
-        <v>14313893</v>
+        <v>26009291</v>
       </c>
       <c r="H72" t="n">
         <v>2018</v>
       </c>
       <c r="I72" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -4275,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -4289,31 +4281,31 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43282</v>
+        <v>43252</v>
       </c>
       <c r="B73" t="n">
-        <v>3.700000047683716</v>
+        <v>4.5</v>
       </c>
       <c r="C73" t="n">
-        <v>4.300000190734863</v>
+        <v>4.949999809265137</v>
       </c>
       <c r="D73" t="n">
-        <v>2.950000047683716</v>
+        <v>3.549999952316284</v>
       </c>
       <c r="E73" t="n">
-        <v>3.849999904632568</v>
+        <v>3.799999952316284</v>
       </c>
       <c r="F73" t="n">
-        <v>3.849999904632568</v>
+        <v>3.799999952316284</v>
       </c>
       <c r="G73" t="n">
-        <v>23921749</v>
+        <v>14313893</v>
       </c>
       <c r="H73" t="n">
         <v>2018</v>
       </c>
       <c r="I73" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -4328,10 +4320,10 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
@@ -4342,31 +4334,31 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43313</v>
+        <v>43282</v>
       </c>
       <c r="B74" t="n">
-        <v>4.050000190734863</v>
+        <v>3.700000047683716</v>
       </c>
       <c r="C74" t="n">
-        <v>4.349999904632568</v>
+        <v>4.300000190734863</v>
       </c>
       <c r="D74" t="n">
-        <v>3.400000095367432</v>
+        <v>2.950000047683716</v>
       </c>
       <c r="E74" t="n">
-        <v>4.300000190734863</v>
+        <v>3.849999904632568</v>
       </c>
       <c r="F74" t="n">
-        <v>4.300000190734863</v>
+        <v>3.849999904632568</v>
       </c>
       <c r="G74" t="n">
-        <v>21494954</v>
+        <v>23921749</v>
       </c>
       <c r="H74" t="n">
         <v>2018</v>
       </c>
       <c r="I74" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
@@ -4381,10 +4373,10 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P74" t="n">
         <v>0</v>
@@ -4395,31 +4387,31 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43344</v>
+        <v>43313</v>
       </c>
       <c r="B75" t="n">
-        <v>4.5</v>
+        <v>4.050000190734863</v>
       </c>
       <c r="C75" t="n">
-        <v>6.199999809265137</v>
+        <v>4.349999904632568</v>
       </c>
       <c r="D75" t="n">
-        <v>4</v>
+        <v>3.400000095367432</v>
       </c>
       <c r="E75" t="n">
-        <v>4</v>
+        <v>4.300000190734863</v>
       </c>
       <c r="F75" t="n">
-        <v>4</v>
+        <v>4.300000190734863</v>
       </c>
       <c r="G75" t="n">
-        <v>28650293</v>
+        <v>21494954</v>
       </c>
       <c r="H75" t="n">
         <v>2018</v>
       </c>
       <c r="I75" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
@@ -4434,10 +4426,10 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P75" t="n">
         <v>0</v>
@@ -4448,31 +4440,31 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43374</v>
+        <v>43344</v>
       </c>
       <c r="B76" t="n">
-        <v>3.849999904632568</v>
+        <v>4.5</v>
       </c>
       <c r="C76" t="n">
-        <v>4.050000190734863</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="D76" t="n">
-        <v>3.099999904632568</v>
+        <v>4</v>
       </c>
       <c r="E76" t="n">
-        <v>3.099999904632568</v>
+        <v>4</v>
       </c>
       <c r="F76" t="n">
-        <v>3.099999904632568</v>
+        <v>4</v>
       </c>
       <c r="G76" t="n">
-        <v>14515189</v>
+        <v>28650293</v>
       </c>
       <c r="H76" t="n">
         <v>2018</v>
       </c>
       <c r="I76" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J76" t="n">
         <v>1</v>
@@ -4487,10 +4479,10 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P76" t="n">
         <v>0</v>
@@ -4501,31 +4493,31 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43405</v>
+        <v>43374</v>
       </c>
       <c r="B77" t="n">
+        <v>3.849999904632568</v>
+      </c>
+      <c r="C77" t="n">
+        <v>4.050000190734863</v>
+      </c>
+      <c r="D77" t="n">
         <v>3.099999904632568</v>
       </c>
-      <c r="C77" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D77" t="n">
-        <v>2.799999952316284</v>
-      </c>
       <c r="E77" t="n">
-        <v>3.400000095367432</v>
+        <v>3.099999904632568</v>
       </c>
       <c r="F77" t="n">
-        <v>3.400000095367432</v>
+        <v>3.099999904632568</v>
       </c>
       <c r="G77" t="n">
-        <v>18507053</v>
+        <v>14515189</v>
       </c>
       <c r="H77" t="n">
         <v>2018</v>
       </c>
       <c r="I77" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
@@ -4540,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -4549,36 +4541,36 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43435</v>
+        <v>43405</v>
       </c>
       <c r="B78" t="n">
-        <v>3.349999904632568</v>
+        <v>3.099999904632568</v>
       </c>
       <c r="C78" t="n">
-        <v>3.650000095367432</v>
+        <v>3.5</v>
       </c>
       <c r="D78" t="n">
-        <v>2.950000047683716</v>
+        <v>2.799999952316284</v>
       </c>
       <c r="E78" t="n">
-        <v>3.5</v>
+        <v>3.400000095367432</v>
       </c>
       <c r="F78" t="n">
-        <v>3.5</v>
+        <v>3.400000095367432</v>
       </c>
       <c r="G78" t="n">
-        <v>15032550</v>
+        <v>18507053</v>
       </c>
       <c r="H78" t="n">
         <v>2018</v>
       </c>
       <c r="I78" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
@@ -4593,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -4602,36 +4594,36 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43466</v>
+        <v>43435</v>
       </c>
       <c r="B79" t="n">
-        <v>3.700000047683716</v>
+        <v>3.349999904632568</v>
       </c>
       <c r="C79" t="n">
-        <v>4.199999809265137</v>
+        <v>3.650000095367432</v>
       </c>
       <c r="D79" t="n">
-        <v>3.349999904632568</v>
+        <v>2.950000047683716</v>
       </c>
       <c r="E79" t="n">
-        <v>3.450000047683716</v>
+        <v>3.5</v>
       </c>
       <c r="F79" t="n">
-        <v>3.450000047683716</v>
+        <v>3.5</v>
       </c>
       <c r="G79" t="n">
-        <v>11299074</v>
+        <v>15032550</v>
       </c>
       <c r="H79" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J79" t="n">
         <v>1</v>
@@ -4646,98 +4638,98 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="B80" t="n">
-        <v>3.5</v>
+        <v>3.700000047683716</v>
       </c>
       <c r="C80" t="n">
-        <v>3.5</v>
+        <v>4.199999809265137</v>
       </c>
       <c r="D80" t="n">
-        <v>2.5</v>
+        <v>3.349999904632568</v>
       </c>
       <c r="E80" t="n">
-        <v>2.75</v>
+        <v>3.450000047683716</v>
       </c>
       <c r="F80" t="n">
-        <v>2.75</v>
+        <v>3.450000047683716</v>
       </c>
       <c r="G80" t="n">
-        <v>7254453</v>
+        <v>11299074</v>
       </c>
       <c r="H80" t="n">
         <v>2019</v>
       </c>
       <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
         <v>2</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0</v>
-      </c>
-      <c r="N80" t="n">
-        <v>5</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0</v>
-      </c>
-      <c r="P80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="B81" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E81" t="n">
         <v>2.75</v>
       </c>
-      <c r="C81" t="n">
-        <v>3.450000047683716</v>
-      </c>
-      <c r="D81" t="n">
-        <v>2.650000095367432</v>
-      </c>
-      <c r="E81" t="n">
-        <v>2.700000047683716</v>
-      </c>
       <c r="F81" t="n">
-        <v>2.700000047683716</v>
+        <v>2.75</v>
       </c>
       <c r="G81" t="n">
-        <v>7171158</v>
+        <v>7254453</v>
       </c>
       <c r="H81" t="n">
         <v>2019</v>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J81" t="n">
         <v>1</v>
@@ -4752,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
@@ -4766,31 +4758,31 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="B82" t="n">
         <v>2.75</v>
       </c>
       <c r="C82" t="n">
-        <v>3.299999952316284</v>
+        <v>3.450000047683716</v>
       </c>
       <c r="D82" t="n">
-        <v>2.5</v>
+        <v>2.650000095367432</v>
       </c>
       <c r="E82" t="n">
-        <v>2.599999904632568</v>
+        <v>2.700000047683716</v>
       </c>
       <c r="F82" t="n">
-        <v>2.599999904632568</v>
+        <v>2.700000047683716</v>
       </c>
       <c r="G82" t="n">
-        <v>9365663</v>
+        <v>7171158</v>
       </c>
       <c r="H82" t="n">
         <v>2019</v>
       </c>
       <c r="I82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J82" t="n">
         <v>1</v>
@@ -4805,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -4819,31 +4811,31 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="B83" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="C83" t="n">
+        <v>3.299999952316284</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E83" t="n">
         <v>2.599999904632568</v>
       </c>
-      <c r="C83" t="n">
-        <v>2.700000047683716</v>
-      </c>
-      <c r="D83" t="n">
-        <v>1.899999976158142</v>
-      </c>
-      <c r="E83" t="n">
-        <v>2.200000047683716</v>
-      </c>
       <c r="F83" t="n">
-        <v>2.200000047683716</v>
+        <v>2.599999904632568</v>
       </c>
       <c r="G83" t="n">
-        <v>13044231</v>
+        <v>9365663</v>
       </c>
       <c r="H83" t="n">
         <v>2019</v>
       </c>
       <c r="I83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J83" t="n">
         <v>1</v>
@@ -4858,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -4867,36 +4859,36 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="B84" t="n">
+        <v>2.599999904632568</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2.700000047683716</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.899999976158142</v>
+      </c>
+      <c r="E84" t="n">
         <v>2.200000047683716</v>
       </c>
-      <c r="C84" t="n">
-        <v>2.299999952316284</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1.649999976158142</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1.850000023841858</v>
-      </c>
       <c r="F84" t="n">
-        <v>1.850000023841858</v>
+        <v>2.200000047683716</v>
       </c>
       <c r="G84" t="n">
-        <v>6505144</v>
+        <v>13044231</v>
       </c>
       <c r="H84" t="n">
         <v>2019</v>
       </c>
       <c r="I84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
@@ -4911,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -4920,36 +4912,36 @@
         <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43647</v>
+        <v>43617</v>
       </c>
       <c r="B85" t="n">
+        <v>2.200000047683716</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2.299999952316284</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.649999976158142</v>
+      </c>
+      <c r="E85" t="n">
         <v>1.850000023841858</v>
       </c>
-      <c r="C85" t="n">
-        <v>2.549999952316284</v>
-      </c>
-      <c r="D85" t="n">
-        <v>1.399999976158142</v>
-      </c>
-      <c r="E85" t="n">
-        <v>1.700000047683716</v>
-      </c>
       <c r="F85" t="n">
-        <v>1.700000047683716</v>
+        <v>1.850000023841858</v>
       </c>
       <c r="G85" t="n">
-        <v>5739461</v>
+        <v>6505144</v>
       </c>
       <c r="H85" t="n">
         <v>2019</v>
       </c>
       <c r="I85" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
@@ -4964,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -4978,31 +4970,31 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43678</v>
+        <v>43647</v>
       </c>
       <c r="B86" t="n">
         <v>1.850000023841858</v>
       </c>
       <c r="C86" t="n">
-        <v>1.899999976158142</v>
+        <v>2.549999952316284</v>
       </c>
       <c r="D86" t="n">
-        <v>1.149999976158142</v>
+        <v>1.399999976158142</v>
       </c>
       <c r="E86" t="n">
-        <v>1.399999976158142</v>
+        <v>1.700000047683716</v>
       </c>
       <c r="F86" t="n">
-        <v>1.399999976158142</v>
+        <v>1.700000047683716</v>
       </c>
       <c r="G86" t="n">
-        <v>4332732</v>
+        <v>5739461</v>
       </c>
       <c r="H86" t="n">
         <v>2019</v>
       </c>
       <c r="I86" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J86" t="n">
         <v>1</v>
@@ -5017,10 +5009,10 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P86" t="n">
         <v>0</v>
@@ -5031,31 +5023,31 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43709</v>
+        <v>43678</v>
       </c>
       <c r="B87" t="n">
+        <v>1.850000023841858</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1.899999976158142</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1.149999976158142</v>
+      </c>
+      <c r="E87" t="n">
         <v>1.399999976158142</v>
       </c>
-      <c r="C87" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="E87" t="n">
-        <v>1.850000023841858</v>
-      </c>
       <c r="F87" t="n">
-        <v>1.850000023841858</v>
+        <v>1.399999976158142</v>
       </c>
       <c r="G87" t="n">
-        <v>5720543</v>
+        <v>4332732</v>
       </c>
       <c r="H87" t="n">
         <v>2019</v>
       </c>
       <c r="I87" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J87" t="n">
         <v>1</v>
@@ -5070,10 +5062,10 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P87" t="n">
         <v>0</v>
@@ -5084,31 +5076,31 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43739</v>
+        <v>43709</v>
       </c>
       <c r="B88" t="n">
-        <v>1.799999952316284</v>
+        <v>1.399999976158142</v>
       </c>
       <c r="C88" t="n">
-        <v>1.799999952316284</v>
+        <v>2.5</v>
       </c>
       <c r="D88" t="n">
         <v>1.25</v>
       </c>
       <c r="E88" t="n">
-        <v>1.299999952316284</v>
+        <v>1.850000023841858</v>
       </c>
       <c r="F88" t="n">
-        <v>1.299999952316284</v>
+        <v>1.850000023841858</v>
       </c>
       <c r="G88" t="n">
-        <v>8164191</v>
+        <v>5720543</v>
       </c>
       <c r="H88" t="n">
         <v>2019</v>
       </c>
       <c r="I88" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J88" t="n">
         <v>1</v>
@@ -5123,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O88" t="n">
         <v>0</v>
@@ -5137,31 +5129,31 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="B89" t="n">
-        <v>1.350000023841858</v>
+        <v>1.799999952316284</v>
       </c>
       <c r="C89" t="n">
         <v>1.799999952316284</v>
       </c>
       <c r="D89" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E89" t="n">
         <v>1.299999952316284</v>
       </c>
-      <c r="E89" t="n">
-        <v>1.799999952316284</v>
-      </c>
       <c r="F89" t="n">
-        <v>1.799999952316284</v>
+        <v>1.299999952316284</v>
       </c>
       <c r="G89" t="n">
-        <v>3438172</v>
+        <v>8164191</v>
       </c>
       <c r="H89" t="n">
         <v>2019</v>
       </c>
       <c r="I89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J89" t="n">
         <v>1</v>
@@ -5176,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O89" t="n">
         <v>0</v>
@@ -5190,31 +5182,31 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43800</v>
+        <v>43770</v>
       </c>
       <c r="B90" t="n">
-        <v>1.850000023841858</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="C90" t="n">
-        <v>1.950000047683716</v>
+        <v>1.799999952316284</v>
       </c>
       <c r="D90" t="n">
-        <v>1.649999976158142</v>
+        <v>1.299999952316284</v>
       </c>
       <c r="E90" t="n">
-        <v>1.899999976158142</v>
+        <v>1.799999952316284</v>
       </c>
       <c r="F90" t="n">
-        <v>1.899999976158142</v>
+        <v>1.799999952316284</v>
       </c>
       <c r="G90" t="n">
-        <v>2842658</v>
+        <v>3438172</v>
       </c>
       <c r="H90" t="n">
         <v>2019</v>
       </c>
       <c r="I90" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J90" t="n">
         <v>1</v>
@@ -5229,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O90" t="n">
         <v>0</v>
@@ -5238,36 +5230,36 @@
         <v>0</v>
       </c>
       <c r="Q90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43831</v>
+        <v>43800</v>
       </c>
       <c r="B91" t="n">
+        <v>1.850000023841858</v>
+      </c>
+      <c r="C91" t="n">
         <v>1.950000047683716</v>
       </c>
-      <c r="C91" t="n">
-        <v>2.5</v>
-      </c>
       <c r="D91" t="n">
-        <v>1.950000047683716</v>
+        <v>1.649999976158142</v>
       </c>
       <c r="E91" t="n">
-        <v>2.450000047683716</v>
+        <v>1.899999976158142</v>
       </c>
       <c r="F91" t="n">
-        <v>2.450000047683716</v>
+        <v>1.899999976158142</v>
       </c>
       <c r="G91" t="n">
-        <v>3512021</v>
+        <v>2842658</v>
       </c>
       <c r="H91" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J91" t="n">
         <v>1</v>
@@ -5282,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O91" t="n">
         <v>0</v>
@@ -5291,36 +5283,36 @@
         <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="B92" t="n">
-        <v>2.549999952316284</v>
+        <v>1.950000047683716</v>
       </c>
       <c r="C92" t="n">
-        <v>2.950000047683716</v>
+        <v>2.5</v>
       </c>
       <c r="D92" t="n">
+        <v>1.950000047683716</v>
+      </c>
+      <c r="E92" t="n">
         <v>2.450000047683716</v>
       </c>
-      <c r="E92" t="n">
-        <v>2.950000047683716</v>
-      </c>
       <c r="F92" t="n">
-        <v>2.950000047683716</v>
+        <v>2.450000047683716</v>
       </c>
       <c r="G92" t="n">
-        <v>1687770</v>
+        <v>3512021</v>
       </c>
       <c r="H92" t="n">
         <v>2020</v>
       </c>
       <c r="I92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
         <v>1</v>
@@ -5335,10 +5327,10 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P92" t="n">
         <v>0</v>
@@ -5349,31 +5341,31 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="B93" t="n">
-        <v>2.849999904632568</v>
+        <v>2.549999952316284</v>
       </c>
       <c r="C93" t="n">
-        <v>2.849999904632568</v>
+        <v>2.950000047683716</v>
       </c>
       <c r="D93" t="n">
-        <v>2.049999952316284</v>
+        <v>2.450000047683716</v>
       </c>
       <c r="E93" t="n">
-        <v>2.049999952316284</v>
+        <v>2.950000047683716</v>
       </c>
       <c r="F93" t="n">
-        <v>2.049999952316284</v>
+        <v>2.950000047683716</v>
       </c>
       <c r="G93" t="n">
-        <v>10777</v>
+        <v>1687770</v>
       </c>
       <c r="H93" t="n">
         <v>2020</v>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J93" t="n">
         <v>1</v>
@@ -5388,10 +5380,10 @@
         <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P93" t="n">
         <v>0</v>
@@ -5402,31 +5394,31 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43922</v>
+        <v>43891</v>
       </c>
       <c r="B94" t="n">
-        <v>1.950000047683716</v>
+        <v>2.849999904632568</v>
       </c>
       <c r="C94" t="n">
-        <v>1.950000047683716</v>
+        <v>2.849999904632568</v>
       </c>
       <c r="D94" t="n">
-        <v>1.549999952316284</v>
+        <v>2.049999952316284</v>
       </c>
       <c r="E94" t="n">
-        <v>1.549999952316284</v>
+        <v>2.049999952316284</v>
       </c>
       <c r="F94" t="n">
-        <v>1.549999952316284</v>
+        <v>2.049999952316284</v>
       </c>
       <c r="G94" t="n">
-        <v>2352754</v>
+        <v>10777</v>
       </c>
       <c r="H94" t="n">
         <v>2020</v>
       </c>
       <c r="I94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J94" t="n">
         <v>1</v>
@@ -5441,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O94" t="n">
         <v>0</v>
@@ -5455,31 +5447,31 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="B95" t="n">
+        <v>1.950000047683716</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1.950000047683716</v>
+      </c>
+      <c r="D95" t="n">
         <v>1.549999952316284</v>
       </c>
-      <c r="C95" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="D95" t="n">
-        <v>1.5</v>
-      </c>
       <c r="E95" t="n">
-        <v>1.75</v>
+        <v>1.549999952316284</v>
       </c>
       <c r="F95" t="n">
-        <v>1.75</v>
+        <v>1.549999952316284</v>
       </c>
       <c r="G95" t="n">
-        <v>2139223</v>
+        <v>2352754</v>
       </c>
       <c r="H95" t="n">
         <v>2020</v>
       </c>
       <c r="I95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J95" t="n">
         <v>1</v>
@@ -5494,10 +5486,10 @@
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P95" t="n">
         <v>0</v>
@@ -5508,31 +5500,31 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="B96" t="n">
+        <v>1.549999952316284</v>
+      </c>
+      <c r="C96" t="n">
         <v>1.75</v>
       </c>
-      <c r="C96" t="n">
-        <v>3.75</v>
-      </c>
       <c r="D96" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E96" t="n">
         <v>1.75</v>
       </c>
-      <c r="E96" t="n">
-        <v>3.75</v>
-      </c>
       <c r="F96" t="n">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="G96" t="n">
-        <v>3276210</v>
+        <v>2139223</v>
       </c>
       <c r="H96" t="n">
         <v>2020</v>
       </c>
       <c r="I96" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
@@ -5547,45 +5539,45 @@
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P96" t="n">
         <v>0</v>
       </c>
       <c r="Q96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="B97" t="n">
-        <v>3.900000095367432</v>
+        <v>1.75</v>
       </c>
       <c r="C97" t="n">
-        <v>5.849999904632568</v>
+        <v>3.75</v>
       </c>
       <c r="D97" t="n">
-        <v>2.849999904632568</v>
+        <v>1.75</v>
       </c>
       <c r="E97" t="n">
-        <v>5.849999904632568</v>
+        <v>3.75</v>
       </c>
       <c r="F97" t="n">
-        <v>5.849999904632568</v>
+        <v>3.75</v>
       </c>
       <c r="G97" t="n">
-        <v>5596590</v>
+        <v>3276210</v>
       </c>
       <c r="H97" t="n">
         <v>2020</v>
       </c>
       <c r="I97" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J97" t="n">
         <v>1</v>
@@ -5600,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O97" t="n">
         <v>0</v>
@@ -5609,36 +5601,36 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="B98" t="n">
-        <v>6.099999904632568</v>
+        <v>3.900000095367432</v>
       </c>
       <c r="C98" t="n">
-        <v>11.35000038146973</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="D98" t="n">
-        <v>6.099999904632568</v>
+        <v>2.849999904632568</v>
       </c>
       <c r="E98" t="n">
-        <v>9.350000381469727</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="F98" t="n">
-        <v>9.350000381469727</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="G98" t="n">
-        <v>53754104</v>
+        <v>5596590</v>
       </c>
       <c r="H98" t="n">
         <v>2020</v>
       </c>
       <c r="I98" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J98" t="n">
         <v>1</v>
@@ -5653,10 +5645,10 @@
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P98" t="n">
         <v>0</v>
@@ -5667,31 +5659,31 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="B99" t="n">
-        <v>8.899999618530273</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="C99" t="n">
-        <v>8.899999618530273</v>
+        <v>11.35000038146973</v>
       </c>
       <c r="D99" t="n">
-        <v>5.25</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="E99" t="n">
-        <v>5.949999809265137</v>
+        <v>9.350000381469727</v>
       </c>
       <c r="F99" t="n">
-        <v>5.949999809265137</v>
+        <v>9.350000381469727</v>
       </c>
       <c r="G99" t="n">
-        <v>34063833</v>
+        <v>53754104</v>
       </c>
       <c r="H99" t="n">
         <v>2020</v>
       </c>
       <c r="I99" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J99" t="n">
         <v>1</v>
@@ -5706,45 +5698,45 @@
         <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P99" t="n">
         <v>0</v>
       </c>
       <c r="Q99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="B100" t="n">
-        <v>6.150000095367432</v>
+        <v>8.899999618530273</v>
       </c>
       <c r="C100" t="n">
-        <v>7.099999904632568</v>
+        <v>8.899999618530273</v>
       </c>
       <c r="D100" t="n">
-        <v>4.800000190734863</v>
+        <v>5.25</v>
       </c>
       <c r="E100" t="n">
-        <v>6.800000190734863</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="F100" t="n">
-        <v>6.800000190734863</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="G100" t="n">
-        <v>11598174</v>
+        <v>34063833</v>
       </c>
       <c r="H100" t="n">
         <v>2020</v>
       </c>
       <c r="I100" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>
@@ -5759,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O100" t="n">
         <v>0</v>
@@ -5768,36 +5760,36 @@
         <v>0</v>
       </c>
       <c r="Q100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="B101" t="n">
-        <v>7.099999904632568</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="C101" t="n">
         <v>7.099999904632568</v>
       </c>
       <c r="D101" t="n">
-        <v>5.449999809265137</v>
+        <v>4.800000190734863</v>
       </c>
       <c r="E101" t="n">
-        <v>5.550000190734863</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="F101" t="n">
-        <v>5.550000190734863</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="G101" t="n">
-        <v>4713018</v>
+        <v>11598174</v>
       </c>
       <c r="H101" t="n">
         <v>2020</v>
       </c>
       <c r="I101" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J101" t="n">
         <v>1</v>
@@ -5812,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O101" t="n">
         <v>0</v>
@@ -5826,31 +5818,31 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44166</v>
+        <v>44136</v>
       </c>
       <c r="B102" t="n">
+        <v>7.099999904632568</v>
+      </c>
+      <c r="C102" t="n">
+        <v>7.099999904632568</v>
+      </c>
+      <c r="D102" t="n">
+        <v>5.449999809265137</v>
+      </c>
+      <c r="E102" t="n">
         <v>5.550000190734863</v>
       </c>
-      <c r="C102" t="n">
-        <v>7.449999809265137</v>
-      </c>
-      <c r="D102" t="n">
+      <c r="F102" t="n">
         <v>5.550000190734863</v>
       </c>
-      <c r="E102" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="F102" t="n">
-        <v>6.75</v>
-      </c>
       <c r="G102" t="n">
-        <v>10359630</v>
+        <v>4713018</v>
       </c>
       <c r="H102" t="n">
         <v>2020</v>
       </c>
       <c r="I102" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J102" t="n">
         <v>1</v>
@@ -5865,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O102" t="n">
         <v>0</v>
@@ -5874,36 +5866,36 @@
         <v>0</v>
       </c>
       <c r="Q102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44197</v>
+        <v>44166</v>
       </c>
       <c r="B103" t="n">
-        <v>6.900000095367432</v>
+        <v>5.550000190734863</v>
       </c>
       <c r="C103" t="n">
-        <v>8.449999809265137</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="D103" t="n">
-        <v>6.400000095367432</v>
+        <v>5.550000190734863</v>
       </c>
       <c r="E103" t="n">
-        <v>7.400000095367432</v>
+        <v>6.75</v>
       </c>
       <c r="F103" t="n">
-        <v>7.400000095367432</v>
+        <v>6.75</v>
       </c>
       <c r="G103" t="n">
-        <v>18714148</v>
+        <v>10359630</v>
       </c>
       <c r="H103" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J103" t="n">
         <v>1</v>
@@ -5918,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O103" t="n">
         <v>0</v>
@@ -5927,36 +5919,36 @@
         <v>0</v>
       </c>
       <c r="Q103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="B104" t="n">
-        <v>7.699999809265137</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="C104" t="n">
-        <v>8</v>
+        <v>8.449999809265137</v>
       </c>
       <c r="D104" t="n">
-        <v>6.199999809265137</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="E104" t="n">
-        <v>6.449999809265137</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="F104" t="n">
-        <v>6.449999809265137</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="G104" t="n">
-        <v>12296422</v>
+        <v>18714148</v>
       </c>
       <c r="H104" t="n">
         <v>2021</v>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
         <v>1</v>
@@ -5971,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="O104" t="n">
         <v>0</v>
@@ -5985,31 +5977,31 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="B105" t="n">
-        <v>6.75</v>
+        <v>7.699999809265137</v>
       </c>
       <c r="C105" t="n">
-        <v>7.550000190734863</v>
+        <v>8</v>
       </c>
       <c r="D105" t="n">
-        <v>4.699999809265137</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="E105" t="n">
-        <v>5.099999904632568</v>
+        <v>6.449999809265137</v>
       </c>
       <c r="F105" t="n">
-        <v>5.099999904632568</v>
+        <v>6.449999809265137</v>
       </c>
       <c r="G105" t="n">
-        <v>24182594</v>
+        <v>12296422</v>
       </c>
       <c r="H105" t="n">
         <v>2021</v>
       </c>
       <c r="I105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J105" t="n">
         <v>1</v>
@@ -6024,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O105" t="n">
         <v>0</v>
@@ -6038,31 +6030,31 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="B106" t="n">
-        <v>5.349999904632568</v>
+        <v>6.75</v>
       </c>
       <c r="C106" t="n">
-        <v>10.19999980926514</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="D106" t="n">
-        <v>4.550000190734863</v>
+        <v>4.699999809265137</v>
       </c>
       <c r="E106" t="n">
-        <v>10.19999980926514</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="F106" t="n">
-        <v>10.19999980926514</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="G106" t="n">
-        <v>30936380</v>
+        <v>24182594</v>
       </c>
       <c r="H106" t="n">
         <v>2021</v>
       </c>
       <c r="I106" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J106" t="n">
         <v>1</v>
@@ -6077,10 +6069,10 @@
         <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P106" t="n">
         <v>0</v>
@@ -6091,31 +6083,31 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="B107" t="n">
-        <v>10.69999980926514</v>
+        <v>5.349999904632568</v>
       </c>
       <c r="C107" t="n">
-        <v>19.70000076293945</v>
+        <v>10.19999980926514</v>
       </c>
       <c r="D107" t="n">
-        <v>10.64999961853027</v>
+        <v>4.550000190734863</v>
       </c>
       <c r="E107" t="n">
-        <v>17.04999923706055</v>
+        <v>10.19999980926514</v>
       </c>
       <c r="F107" t="n">
-        <v>17.04999923706055</v>
+        <v>10.19999980926514</v>
       </c>
       <c r="G107" t="n">
-        <v>80545872</v>
+        <v>30936380</v>
       </c>
       <c r="H107" t="n">
         <v>2021</v>
       </c>
       <c r="I107" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J107" t="n">
         <v>1</v>
@@ -6130,10 +6122,10 @@
         <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P107" t="n">
         <v>0</v>
@@ -6144,31 +6136,31 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="B108" t="n">
-        <v>17.89999961853027</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="C108" t="n">
-        <v>44.29999923706055</v>
+        <v>19.70000076293945</v>
       </c>
       <c r="D108" t="n">
-        <v>17.89999961853027</v>
+        <v>10.64999961853027</v>
       </c>
       <c r="E108" t="n">
-        <v>44.29999923706055</v>
+        <v>17.04999923706055</v>
       </c>
       <c r="F108" t="n">
-        <v>44.29999923706055</v>
+        <v>17.04999923706055</v>
       </c>
       <c r="G108" t="n">
-        <v>46354967</v>
+        <v>80545872</v>
       </c>
       <c r="H108" t="n">
         <v>2021</v>
       </c>
       <c r="I108" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J108" t="n">
         <v>1</v>
@@ -6183,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O108" t="n">
         <v>0</v>
@@ -6197,31 +6189,31 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="B109" t="n">
-        <v>46.5</v>
+        <v>17.89999961853027</v>
       </c>
       <c r="C109" t="n">
-        <v>71</v>
+        <v>44.29999923706055</v>
       </c>
       <c r="D109" t="n">
-        <v>40.5</v>
+        <v>17.89999961853027</v>
       </c>
       <c r="E109" t="n">
-        <v>66.80000305175781</v>
+        <v>44.29999923706055</v>
       </c>
       <c r="F109" t="n">
-        <v>66.80000305175781</v>
+        <v>44.29999923706055</v>
       </c>
       <c r="G109" t="n">
-        <v>58771124</v>
+        <v>46354967</v>
       </c>
       <c r="H109" t="n">
         <v>2021</v>
       </c>
       <c r="I109" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J109" t="n">
         <v>1</v>
@@ -6236,10 +6228,10 @@
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P109" t="n">
         <v>0</v>
@@ -6250,31 +6242,31 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="B110" t="n">
-        <v>68</v>
+        <v>46.5</v>
       </c>
       <c r="C110" t="n">
-        <v>68.40000152587891</v>
+        <v>71</v>
       </c>
       <c r="D110" t="n">
-        <v>43.45000076293945</v>
+        <v>40.5</v>
       </c>
       <c r="E110" t="n">
-        <v>46.15000152587891</v>
+        <v>66.80000305175781</v>
       </c>
       <c r="F110" t="n">
-        <v>46.15000152587891</v>
+        <v>66.80000305175781</v>
       </c>
       <c r="G110" t="n">
-        <v>34846114</v>
+        <v>58771124</v>
       </c>
       <c r="H110" t="n">
         <v>2021</v>
       </c>
       <c r="I110" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J110" t="n">
         <v>1</v>
@@ -6289,45 +6281,45 @@
         <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P110" t="n">
         <v>0</v>
       </c>
       <c r="Q110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="B111" t="n">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C111" t="n">
-        <v>49.29999923706055</v>
+        <v>68.40000152587891</v>
       </c>
       <c r="D111" t="n">
-        <v>40</v>
+        <v>43.45000076293945</v>
       </c>
       <c r="E111" t="n">
-        <v>44.45000076293945</v>
+        <v>46.15000152587891</v>
       </c>
       <c r="F111" t="n">
-        <v>44.45000076293945</v>
+        <v>46.15000152587891</v>
       </c>
       <c r="G111" t="n">
-        <v>20259738</v>
+        <v>34846114</v>
       </c>
       <c r="H111" t="n">
         <v>2021</v>
       </c>
       <c r="I111" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J111" t="n">
         <v>1</v>
@@ -6342,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="N111" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O111" t="n">
         <v>0</v>
@@ -6351,36 +6343,36 @@
         <v>0</v>
       </c>
       <c r="Q111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B112" t="n">
-        <v>45.70000076293945</v>
+        <v>45</v>
       </c>
       <c r="C112" t="n">
-        <v>46.65000152587891</v>
+        <v>49.29999923706055</v>
       </c>
       <c r="D112" t="n">
-        <v>38.59999847412109</v>
+        <v>40</v>
       </c>
       <c r="E112" t="n">
-        <v>40.34999847412109</v>
+        <v>44.45000076293945</v>
       </c>
       <c r="F112" t="n">
-        <v>40.34999847412109</v>
+        <v>44.45000076293945</v>
       </c>
       <c r="G112" t="n">
-        <v>29310450</v>
+        <v>20259738</v>
       </c>
       <c r="H112" t="n">
         <v>2021</v>
       </c>
       <c r="I112" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J112" t="n">
         <v>1</v>
@@ -6395,10 +6387,10 @@
         <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P112" t="n">
         <v>0</v>
@@ -6409,31 +6401,31 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B113" t="n">
-        <v>41</v>
+        <v>45.70000076293945</v>
       </c>
       <c r="C113" t="n">
-        <v>55.90000152587891</v>
+        <v>46.65000152587891</v>
       </c>
       <c r="D113" t="n">
-        <v>40.04999923706055</v>
+        <v>38.59999847412109</v>
       </c>
       <c r="E113" t="n">
-        <v>42.79999923706055</v>
+        <v>40.34999847412109</v>
       </c>
       <c r="F113" t="n">
-        <v>42.79999923706055</v>
+        <v>40.34999847412109</v>
       </c>
       <c r="G113" t="n">
-        <v>70411454</v>
+        <v>29310450</v>
       </c>
       <c r="H113" t="n">
         <v>2021</v>
       </c>
       <c r="I113" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J113" t="n">
         <v>1</v>
@@ -6448,45 +6440,45 @@
         <v>0</v>
       </c>
       <c r="N113" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P113" t="n">
         <v>0</v>
       </c>
       <c r="Q113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="B114" t="n">
-        <v>43.79999923706055</v>
+        <v>41</v>
       </c>
       <c r="C114" t="n">
-        <v>64.25</v>
+        <v>55.90000152587891</v>
       </c>
       <c r="D114" t="n">
-        <v>42</v>
+        <v>40.04999923706055</v>
       </c>
       <c r="E114" t="n">
-        <v>47.59999847412109</v>
+        <v>42.79999923706055</v>
       </c>
       <c r="F114" t="n">
-        <v>47.59999847412109</v>
+        <v>42.79999923706055</v>
       </c>
       <c r="G114" t="n">
-        <v>109476499</v>
+        <v>70411454</v>
       </c>
       <c r="H114" t="n">
         <v>2021</v>
       </c>
       <c r="I114" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J114" t="n">
         <v>1</v>
@@ -6501,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="N114" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O114" t="n">
         <v>0</v>
@@ -6510,36 +6502,36 @@
         <v>0</v>
       </c>
       <c r="Q114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="B115" t="n">
-        <v>48.20000076293945</v>
+        <v>43.79999923706055</v>
       </c>
       <c r="C115" t="n">
-        <v>65.90000152587891</v>
+        <v>64.25</v>
       </c>
       <c r="D115" t="n">
+        <v>42</v>
+      </c>
+      <c r="E115" t="n">
         <v>47.59999847412109</v>
       </c>
-      <c r="E115" t="n">
-        <v>52.75</v>
-      </c>
       <c r="F115" t="n">
-        <v>52.75</v>
+        <v>47.59999847412109</v>
       </c>
       <c r="G115" t="n">
-        <v>65693959</v>
+        <v>109476499</v>
       </c>
       <c r="H115" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J115" t="n">
         <v>1</v>
@@ -6554,10 +6546,10 @@
         <v>0</v>
       </c>
       <c r="N115" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P115" t="n">
         <v>0</v>
@@ -6568,31 +6560,31 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B116" t="n">
-        <v>53</v>
+        <v>48.20000076293945</v>
       </c>
       <c r="C116" t="n">
-        <v>58.40000152587891</v>
+        <v>65.90000152587891</v>
       </c>
       <c r="D116" t="n">
-        <v>40.20000076293945</v>
+        <v>47.59999847412109</v>
       </c>
       <c r="E116" t="n">
-        <v>40.95000076293945</v>
+        <v>52.75</v>
       </c>
       <c r="F116" t="n">
-        <v>40.95000076293945</v>
+        <v>52.75</v>
       </c>
       <c r="G116" t="n">
-        <v>37576308</v>
+        <v>65693959</v>
       </c>
       <c r="H116" t="n">
         <v>2022</v>
       </c>
       <c r="I116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
         <v>1</v>
@@ -6607,45 +6599,45 @@
         <v>0</v>
       </c>
       <c r="N116" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P116" t="n">
         <v>0</v>
       </c>
       <c r="Q116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B117" t="n">
-        <v>40.95000076293945</v>
+        <v>53</v>
       </c>
       <c r="C117" t="n">
-        <v>52.59999847412109</v>
+        <v>58.40000152587891</v>
       </c>
       <c r="D117" t="n">
         <v>40.20000076293945</v>
       </c>
       <c r="E117" t="n">
-        <v>46.15000152587891</v>
+        <v>40.95000076293945</v>
       </c>
       <c r="F117" t="n">
-        <v>46.15000152587891</v>
+        <v>40.95000076293945</v>
       </c>
       <c r="G117" t="n">
-        <v>33252673</v>
+        <v>37576308</v>
       </c>
       <c r="H117" t="n">
         <v>2022</v>
       </c>
       <c r="I117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J117" t="n">
         <v>1</v>
@@ -6660,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="N117" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O117" t="n">
         <v>0</v>
@@ -6669,36 +6661,36 @@
         <v>0</v>
       </c>
       <c r="Q117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B118" t="n">
-        <v>46.29999923706055</v>
+        <v>40.95000076293945</v>
       </c>
       <c r="C118" t="n">
-        <v>52.29999923706055</v>
+        <v>52.59999847412109</v>
       </c>
       <c r="D118" t="n">
         <v>40.20000076293945</v>
       </c>
       <c r="E118" t="n">
-        <v>42.70000076293945</v>
+        <v>46.15000152587891</v>
       </c>
       <c r="F118" t="n">
-        <v>42.70000076293945</v>
+        <v>46.15000152587891</v>
       </c>
       <c r="G118" t="n">
-        <v>28244317</v>
+        <v>33252673</v>
       </c>
       <c r="H118" t="n">
         <v>2022</v>
       </c>
       <c r="I118" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J118" t="n">
         <v>1</v>
@@ -6713,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="N118" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O118" t="n">
         <v>0</v>
@@ -6727,31 +6719,31 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B119" t="n">
-        <v>42.40000152587891</v>
+        <v>46.29999923706055</v>
       </c>
       <c r="C119" t="n">
-        <v>49.25</v>
+        <v>52.29999923706055</v>
       </c>
       <c r="D119" t="n">
-        <v>30.5</v>
+        <v>40.20000076293945</v>
       </c>
       <c r="E119" t="n">
-        <v>49.25</v>
+        <v>42.70000076293945</v>
       </c>
       <c r="F119" t="n">
-        <v>49.25</v>
+        <v>42.70000076293945</v>
       </c>
       <c r="G119" t="n">
-        <v>73172363</v>
+        <v>28244317</v>
       </c>
       <c r="H119" t="n">
         <v>2022</v>
       </c>
       <c r="I119" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J119" t="n">
         <v>1</v>
@@ -6766,45 +6758,45 @@
         <v>0</v>
       </c>
       <c r="N119" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P119" t="n">
         <v>0</v>
       </c>
       <c r="Q119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B120" t="n">
-        <v>50.90000152587891</v>
+        <v>42.40000152587891</v>
       </c>
       <c r="C120" t="n">
-        <v>59.65000152587891</v>
+        <v>49.25</v>
       </c>
       <c r="D120" t="n">
-        <v>39.09999847412109</v>
+        <v>30.5</v>
       </c>
       <c r="E120" t="n">
-        <v>42.40000152587891</v>
+        <v>49.25</v>
       </c>
       <c r="F120" t="n">
-        <v>42.40000152587891</v>
+        <v>49.25</v>
       </c>
       <c r="G120" t="n">
-        <v>76305781</v>
+        <v>73172363</v>
       </c>
       <c r="H120" t="n">
         <v>2022</v>
       </c>
       <c r="I120" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J120" t="n">
         <v>1</v>
@@ -6819,45 +6811,45 @@
         <v>0</v>
       </c>
       <c r="N120" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P120" t="n">
         <v>0</v>
       </c>
       <c r="Q120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B121" t="n">
-        <v>43</v>
+        <v>50.90000152587891</v>
       </c>
       <c r="C121" t="n">
-        <v>45.45000076293945</v>
+        <v>59.65000152587891</v>
       </c>
       <c r="D121" t="n">
-        <v>40.40000152587891</v>
+        <v>39.09999847412109</v>
       </c>
       <c r="E121" t="n">
-        <v>43.5</v>
+        <v>42.40000152587891</v>
       </c>
       <c r="F121" t="n">
-        <v>43.5</v>
+        <v>42.40000152587891</v>
       </c>
       <c r="G121" t="n">
-        <v>17764094</v>
+        <v>76305781</v>
       </c>
       <c r="H121" t="n">
         <v>2022</v>
       </c>
       <c r="I121" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J121" t="n">
         <v>1</v>
@@ -6872,10 +6864,10 @@
         <v>0</v>
       </c>
       <c r="N121" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P121" t="n">
         <v>0</v>
@@ -6886,31 +6878,31 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B122" t="n">
-        <v>43.90000152587891</v>
+        <v>43</v>
       </c>
       <c r="C122" t="n">
-        <v>58.45000076293945</v>
+        <v>45.45000076293945</v>
       </c>
       <c r="D122" t="n">
-        <v>42.5</v>
+        <v>40.40000152587891</v>
       </c>
       <c r="E122" t="n">
-        <v>51.59999847412109</v>
+        <v>43.5</v>
       </c>
       <c r="F122" t="n">
-        <v>51.59999847412109</v>
+        <v>43.5</v>
       </c>
       <c r="G122" t="n">
-        <v>81092213</v>
+        <v>17764094</v>
       </c>
       <c r="H122" t="n">
         <v>2022</v>
       </c>
       <c r="I122" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J122" t="n">
         <v>1</v>
@@ -6925,7 +6917,7 @@
         <v>0</v>
       </c>
       <c r="N122" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O122" t="n">
         <v>0</v>
@@ -6939,31 +6931,31 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B123" t="n">
-        <v>51.40000152587891</v>
+        <v>43.90000152587891</v>
       </c>
       <c r="C123" t="n">
-        <v>55.84999847412109</v>
+        <v>58.45000076293945</v>
       </c>
       <c r="D123" t="n">
-        <v>45.59999847412109</v>
+        <v>42.5</v>
       </c>
       <c r="E123" t="n">
-        <v>46.84999847412109</v>
+        <v>51.59999847412109</v>
       </c>
       <c r="F123" t="n">
-        <v>46.84999847412109</v>
+        <v>51.59999847412109</v>
       </c>
       <c r="G123" t="n">
-        <v>56371654</v>
+        <v>81092213</v>
       </c>
       <c r="H123" t="n">
         <v>2022</v>
       </c>
       <c r="I123" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J123" t="n">
         <v>1</v>
@@ -6978,7 +6970,7 @@
         <v>0</v>
       </c>
       <c r="N123" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O123" t="n">
         <v>0</v>
@@ -6987,36 +6979,36 @@
         <v>0</v>
       </c>
       <c r="Q123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B124" t="n">
-        <v>47.20000076293945</v>
+        <v>51.40000152587891</v>
       </c>
       <c r="C124" t="n">
-        <v>55.25</v>
+        <v>55.84999847412109</v>
       </c>
       <c r="D124" t="n">
-        <v>46.65000152587891</v>
+        <v>45.59999847412109</v>
       </c>
       <c r="E124" t="n">
-        <v>48.65000152587891</v>
+        <v>46.84999847412109</v>
       </c>
       <c r="F124" t="n">
-        <v>48.65000152587891</v>
+        <v>46.84999847412109</v>
       </c>
       <c r="G124" t="n">
-        <v>34102876</v>
+        <v>56371654</v>
       </c>
       <c r="H124" t="n">
         <v>2022</v>
       </c>
       <c r="I124" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J124" t="n">
         <v>1</v>
@@ -7031,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="N124" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O124" t="n">
         <v>0</v>
@@ -7040,36 +7032,36 @@
         <v>0</v>
       </c>
       <c r="Q124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B125" t="n">
-        <v>48.90000152587891</v>
+        <v>47.20000076293945</v>
       </c>
       <c r="C125" t="n">
-        <v>55.95000076293945</v>
+        <v>55.25</v>
       </c>
       <c r="D125" t="n">
-        <v>46.59999847412109</v>
+        <v>46.65000152587891</v>
       </c>
       <c r="E125" t="n">
-        <v>49.70000076293945</v>
+        <v>48.65000152587891</v>
       </c>
       <c r="F125" t="n">
-        <v>49.70000076293945</v>
+        <v>48.65000152587891</v>
       </c>
       <c r="G125" t="n">
-        <v>41102793</v>
+        <v>34102876</v>
       </c>
       <c r="H125" t="n">
         <v>2022</v>
       </c>
       <c r="I125" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J125" t="n">
         <v>1</v>
@@ -7084,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="N125" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O125" t="n">
         <v>0</v>
@@ -7093,36 +7085,36 @@
         <v>0</v>
       </c>
       <c r="Q125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B126" t="n">
-        <v>49.95000076293945</v>
+        <v>48.90000152587891</v>
       </c>
       <c r="C126" t="n">
-        <v>50.79999923706055</v>
+        <v>55.95000076293945</v>
       </c>
       <c r="D126" t="n">
-        <v>39</v>
+        <v>46.59999847412109</v>
       </c>
       <c r="E126" t="n">
-        <v>42.29999923706055</v>
+        <v>49.70000076293945</v>
       </c>
       <c r="F126" t="n">
-        <v>42.29999923706055</v>
+        <v>49.70000076293945</v>
       </c>
       <c r="G126" t="n">
-        <v>30665153</v>
+        <v>41102793</v>
       </c>
       <c r="H126" t="n">
         <v>2022</v>
       </c>
       <c r="I126" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J126" t="n">
         <v>1</v>
@@ -7137,7 +7129,7 @@
         <v>0</v>
       </c>
       <c r="N126" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O126" t="n">
         <v>0</v>
@@ -7151,31 +7143,31 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B127" t="n">
-        <v>42.5</v>
+        <v>49.95000076293945</v>
       </c>
       <c r="C127" t="n">
-        <v>50.45000076293945</v>
+        <v>50.79999923706055</v>
       </c>
       <c r="D127" t="n">
-        <v>41.09999847412109</v>
+        <v>39</v>
       </c>
       <c r="E127" t="n">
-        <v>43.90000152587891</v>
+        <v>42.29999923706055</v>
       </c>
       <c r="F127" t="n">
-        <v>43.90000152587891</v>
+        <v>42.29999923706055</v>
       </c>
       <c r="G127" t="n">
-        <v>43824268</v>
+        <v>30665153</v>
       </c>
       <c r="H127" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J127" t="n">
         <v>1</v>
@@ -7190,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="N127" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O127" t="n">
         <v>0</v>
@@ -7204,31 +7196,31 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B128" t="n">
-        <v>44.25</v>
+        <v>42.5</v>
       </c>
       <c r="C128" t="n">
-        <v>45.75</v>
+        <v>50.45000076293945</v>
       </c>
       <c r="D128" t="n">
-        <v>36.59999847412109</v>
+        <v>41.09999847412109</v>
       </c>
       <c r="E128" t="n">
-        <v>38.34999847412109</v>
+        <v>43.90000152587891</v>
       </c>
       <c r="F128" t="n">
-        <v>38.34999847412109</v>
+        <v>43.90000152587891</v>
       </c>
       <c r="G128" t="n">
-        <v>26771809</v>
+        <v>43824268</v>
       </c>
       <c r="H128" t="n">
         <v>2023</v>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
         <v>1</v>
@@ -7243,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="N128" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O128" t="n">
         <v>0</v>
@@ -7257,31 +7249,31 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B129" t="n">
-        <v>38.5</v>
+        <v>44.25</v>
       </c>
       <c r="C129" t="n">
-        <v>40.20000076293945</v>
+        <v>45.75</v>
       </c>
       <c r="D129" t="n">
-        <v>32.15000152587891</v>
+        <v>36.59999847412109</v>
       </c>
       <c r="E129" t="n">
-        <v>35.15000152587891</v>
+        <v>38.34999847412109</v>
       </c>
       <c r="F129" t="n">
-        <v>35.15000152587891</v>
+        <v>38.34999847412109</v>
       </c>
       <c r="G129" t="n">
-        <v>22731302</v>
+        <v>26771809</v>
       </c>
       <c r="H129" t="n">
         <v>2023</v>
       </c>
       <c r="I129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J129" t="n">
         <v>1</v>
@@ -7296,10 +7288,10 @@
         <v>0</v>
       </c>
       <c r="N129" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P129" t="n">
         <v>0</v>
@@ -7310,31 +7302,31 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B130" t="n">
-        <v>35.54999923706055</v>
+        <v>38.5</v>
       </c>
       <c r="C130" t="n">
-        <v>41.5</v>
+        <v>40.20000076293945</v>
       </c>
       <c r="D130" t="n">
-        <v>35.45000076293945</v>
+        <v>32.15000152587891</v>
       </c>
       <c r="E130" t="n">
-        <v>39.79999923706055</v>
+        <v>35.15000152587891</v>
       </c>
       <c r="F130" t="n">
-        <v>39.79999923706055</v>
+        <v>35.15000152587891</v>
       </c>
       <c r="G130" t="n">
-        <v>20260270</v>
+        <v>22731302</v>
       </c>
       <c r="H130" t="n">
         <v>2023</v>
       </c>
       <c r="I130" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J130" t="n">
         <v>1</v>
@@ -7349,10 +7341,10 @@
         <v>0</v>
       </c>
       <c r="N130" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P130" t="n">
         <v>0</v>
@@ -7363,31 +7355,31 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B131" t="n">
+        <v>35.54999923706055</v>
+      </c>
+      <c r="C131" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="D131" t="n">
+        <v>35.45000076293945</v>
+      </c>
+      <c r="E131" t="n">
         <v>39.79999923706055</v>
       </c>
-      <c r="C131" t="n">
-        <v>41.54999923706055</v>
-      </c>
-      <c r="D131" t="n">
-        <v>37.15000152587891</v>
-      </c>
-      <c r="E131" t="n">
-        <v>37.84999847412109</v>
-      </c>
       <c r="F131" t="n">
-        <v>37.84999847412109</v>
+        <v>39.79999923706055</v>
       </c>
       <c r="G131" t="n">
-        <v>19758608</v>
+        <v>20260270</v>
       </c>
       <c r="H131" t="n">
         <v>2023</v>
       </c>
       <c r="I131" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J131" t="n">
         <v>1</v>
@@ -7402,7 +7394,7 @@
         <v>0</v>
       </c>
       <c r="N131" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O131" t="n">
         <v>0</v>
@@ -7416,31 +7408,31 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B132" t="n">
-        <v>38</v>
+        <v>39.79999923706055</v>
       </c>
       <c r="C132" t="n">
-        <v>44.70000076293945</v>
+        <v>41.54999923706055</v>
       </c>
       <c r="D132" t="n">
-        <v>37.54999923706055</v>
+        <v>37.15000152587891</v>
       </c>
       <c r="E132" t="n">
-        <v>41.70000076293945</v>
+        <v>37.84999847412109</v>
       </c>
       <c r="F132" t="n">
-        <v>41.70000076293945</v>
+        <v>37.84999847412109</v>
       </c>
       <c r="G132" t="n">
-        <v>51096469</v>
+        <v>19758608</v>
       </c>
       <c r="H132" t="n">
         <v>2023</v>
       </c>
       <c r="I132" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J132" t="n">
         <v>1</v>
@@ -7455,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="N132" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O132" t="n">
         <v>0</v>
@@ -7469,31 +7461,31 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B133" t="n">
-        <v>42.09999847412109</v>
+        <v>38</v>
       </c>
       <c r="C133" t="n">
-        <v>43.15000152587891</v>
+        <v>44.70000076293945</v>
       </c>
       <c r="D133" t="n">
-        <v>39.15000152587891</v>
+        <v>37.54999923706055</v>
       </c>
       <c r="E133" t="n">
-        <v>40.54999923706055</v>
+        <v>41.70000076293945</v>
       </c>
       <c r="F133" t="n">
-        <v>40.54999923706055</v>
+        <v>41.70000076293945</v>
       </c>
       <c r="G133" t="n">
-        <v>35434397</v>
+        <v>51096469</v>
       </c>
       <c r="H133" t="n">
         <v>2023</v>
       </c>
       <c r="I133" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J133" t="n">
         <v>1</v>
@@ -7508,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="N133" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O133" t="n">
         <v>0</v>
@@ -7517,36 +7509,36 @@
         <v>0</v>
       </c>
       <c r="Q133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B134" t="n">
-        <v>40.70000076293945</v>
+        <v>42.09999847412109</v>
       </c>
       <c r="C134" t="n">
-        <v>63.79999923706055</v>
+        <v>43.15000152587891</v>
       </c>
       <c r="D134" t="n">
-        <v>40.5</v>
+        <v>39.15000152587891</v>
       </c>
       <c r="E134" t="n">
-        <v>61.65000152587891</v>
+        <v>40.54999923706055</v>
       </c>
       <c r="F134" t="n">
-        <v>61.65000152587891</v>
+        <v>40.54999923706055</v>
       </c>
       <c r="G134" t="n">
-        <v>201738630</v>
+        <v>35434397</v>
       </c>
       <c r="H134" t="n">
         <v>2023</v>
       </c>
       <c r="I134" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J134" t="n">
         <v>1</v>
@@ -7561,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="N134" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O134" t="n">
         <v>0</v>
@@ -7570,36 +7562,36 @@
         <v>0</v>
       </c>
       <c r="Q134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B135" t="n">
-        <v>62.20000076293945</v>
+        <v>40.70000076293945</v>
       </c>
       <c r="C135" t="n">
-        <v>68.69999694824219</v>
+        <v>63.79999923706055</v>
       </c>
       <c r="D135" t="n">
-        <v>55.20000076293945</v>
+        <v>40.5</v>
       </c>
       <c r="E135" t="n">
-        <v>56.90000152587891</v>
+        <v>61.65000152587891</v>
       </c>
       <c r="F135" t="n">
-        <v>56.90000152587891</v>
+        <v>61.65000152587891</v>
       </c>
       <c r="G135" t="n">
-        <v>97872809</v>
+        <v>201738630</v>
       </c>
       <c r="H135" t="n">
         <v>2023</v>
       </c>
       <c r="I135" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J135" t="n">
         <v>1</v>
@@ -7614,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="N135" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O135" t="n">
         <v>0</v>
@@ -7628,31 +7620,31 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B136" t="n">
+        <v>62.20000076293945</v>
+      </c>
+      <c r="C136" t="n">
+        <v>68.69999694824219</v>
+      </c>
+      <c r="D136" t="n">
+        <v>55.20000076293945</v>
+      </c>
+      <c r="E136" t="n">
         <v>56.90000152587891</v>
       </c>
-      <c r="C136" t="n">
-        <v>59.29999923706055</v>
-      </c>
-      <c r="D136" t="n">
-        <v>48.29999923706055</v>
-      </c>
-      <c r="E136" t="n">
-        <v>51.70000076293945</v>
-      </c>
       <c r="F136" t="n">
-        <v>51.70000076293945</v>
+        <v>56.90000152587891</v>
       </c>
       <c r="G136" t="n">
-        <v>53518044</v>
+        <v>97872809</v>
       </c>
       <c r="H136" t="n">
         <v>2023</v>
       </c>
       <c r="I136" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J136" t="n">
         <v>1</v>
@@ -7667,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="N136" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O136" t="n">
         <v>0</v>
@@ -7681,31 +7673,31 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B137" t="n">
-        <v>54.29999923706055</v>
+        <v>56.90000152587891</v>
       </c>
       <c r="C137" t="n">
-        <v>81.59999847412109</v>
+        <v>59.29999923706055</v>
       </c>
       <c r="D137" t="n">
-        <v>53.70000076293945</v>
+        <v>48.29999923706055</v>
       </c>
       <c r="E137" t="n">
-        <v>77.44999694824219</v>
+        <v>51.70000076293945</v>
       </c>
       <c r="F137" t="n">
-        <v>77.44999694824219</v>
+        <v>51.70000076293945</v>
       </c>
       <c r="G137" t="n">
-        <v>281724297</v>
+        <v>53518044</v>
       </c>
       <c r="H137" t="n">
         <v>2023</v>
       </c>
       <c r="I137" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J137" t="n">
         <v>1</v>
@@ -7720,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="N137" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O137" t="n">
         <v>0</v>
@@ -7734,31 +7726,31 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B138" t="n">
-        <v>77.59999847412109</v>
+        <v>54.29999923706055</v>
       </c>
       <c r="C138" t="n">
-        <v>86</v>
+        <v>81.59999847412109</v>
       </c>
       <c r="D138" t="n">
-        <v>72</v>
+        <v>53.70000076293945</v>
       </c>
       <c r="E138" t="n">
-        <v>76.25</v>
+        <v>77.44999694824219</v>
       </c>
       <c r="F138" t="n">
-        <v>76.25</v>
+        <v>77.44999694824219</v>
       </c>
       <c r="G138" t="n">
-        <v>193731872</v>
+        <v>281724297</v>
       </c>
       <c r="H138" t="n">
         <v>2023</v>
       </c>
       <c r="I138" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J138" t="n">
         <v>1</v>
@@ -7773,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="N138" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O138" t="n">
         <v>0</v>
@@ -7787,31 +7779,31 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B139" t="n">
-        <v>76.5</v>
+        <v>77.59999847412109</v>
       </c>
       <c r="C139" t="n">
-        <v>94.15000152587891</v>
+        <v>86</v>
       </c>
       <c r="D139" t="n">
-        <v>74.84999847412109</v>
+        <v>72</v>
       </c>
       <c r="E139" t="n">
-        <v>88.15000152587891</v>
+        <v>76.25</v>
       </c>
       <c r="F139" t="n">
-        <v>88.15000152587891</v>
+        <v>76.25</v>
       </c>
       <c r="G139" t="n">
-        <v>236746639</v>
+        <v>193731872</v>
       </c>
       <c r="H139" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J139" t="n">
         <v>1</v>
@@ -7826,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="N139" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O139" t="n">
         <v>0</v>
@@ -7840,31 +7832,31 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B140" t="n">
-        <v>88.5</v>
+        <v>76.5</v>
       </c>
       <c r="C140" t="n">
-        <v>94.84999847412109</v>
+        <v>94.15000152587891</v>
       </c>
       <c r="D140" t="n">
-        <v>75.5</v>
+        <v>74.84999847412109</v>
       </c>
       <c r="E140" t="n">
-        <v>83.59999847412109</v>
+        <v>88.15000152587891</v>
       </c>
       <c r="F140" t="n">
-        <v>83.59999847412109</v>
+        <v>88.15000152587891</v>
       </c>
       <c r="G140" t="n">
-        <v>157220658</v>
+        <v>236746639</v>
       </c>
       <c r="H140" t="n">
         <v>2024</v>
       </c>
       <c r="I140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="n">
         <v>1</v>
@@ -7879,10 +7871,10 @@
         <v>0</v>
       </c>
       <c r="N140" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P140" t="n">
         <v>0</v>
@@ -7893,31 +7885,31 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B141" t="n">
-        <v>83.75</v>
+        <v>88.5</v>
       </c>
       <c r="C141" t="n">
-        <v>84.69999694824219</v>
+        <v>94.84999847412109</v>
       </c>
       <c r="D141" t="n">
-        <v>63.5</v>
+        <v>75.5</v>
       </c>
       <c r="E141" t="n">
-        <v>69.19999694824219</v>
+        <v>83.59999847412109</v>
       </c>
       <c r="F141" t="n">
-        <v>69.19999694824219</v>
+        <v>83.59999847412109</v>
       </c>
       <c r="G141" t="n">
-        <v>74207533</v>
+        <v>157220658</v>
       </c>
       <c r="H141" t="n">
         <v>2024</v>
       </c>
       <c r="I141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J141" t="n">
         <v>1</v>
@@ -7932,10 +7924,10 @@
         <v>0</v>
       </c>
       <c r="N141" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P141" t="n">
         <v>0</v>
@@ -7946,31 +7938,31 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B142" t="n">
-        <v>70.44999694824219</v>
+        <v>83.75</v>
       </c>
       <c r="C142" t="n">
-        <v>79.25</v>
+        <v>84.69999694824219</v>
       </c>
       <c r="D142" t="n">
-        <v>67</v>
+        <v>63.5</v>
       </c>
       <c r="E142" t="n">
-        <v>74.75</v>
+        <v>69.19999694824219</v>
       </c>
       <c r="F142" t="n">
-        <v>74.75</v>
+        <v>69.19999694824219</v>
       </c>
       <c r="G142" t="n">
-        <v>65869329</v>
+        <v>74207533</v>
       </c>
       <c r="H142" t="n">
         <v>2024</v>
       </c>
       <c r="I142" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J142" t="n">
         <v>1</v>
@@ -7985,7 +7977,7 @@
         <v>0</v>
       </c>
       <c r="N142" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O142" t="n">
         <v>0</v>
@@ -7999,31 +7991,31 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B143" t="n">
+        <v>70.44999694824219</v>
+      </c>
+      <c r="C143" t="n">
+        <v>79.25</v>
+      </c>
+      <c r="D143" t="n">
+        <v>67</v>
+      </c>
+      <c r="E143" t="n">
         <v>74.75</v>
       </c>
-      <c r="C143" t="n">
-        <v>85</v>
-      </c>
-      <c r="D143" t="n">
-        <v>68.30000305175781</v>
-      </c>
-      <c r="E143" t="n">
-        <v>72.84999847412109</v>
-      </c>
       <c r="F143" t="n">
-        <v>72.84999847412109</v>
+        <v>74.75</v>
       </c>
       <c r="G143" t="n">
-        <v>110160029</v>
+        <v>65869329</v>
       </c>
       <c r="H143" t="n">
         <v>2024</v>
       </c>
       <c r="I143" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J143" t="n">
         <v>1</v>
@@ -8038,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="N143" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O143" t="n">
         <v>0</v>
@@ -8052,56 +8044,514 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B144" t="n">
-        <v>77</v>
+        <v>74.75</v>
       </c>
       <c r="C144" t="n">
-        <v>78.90000152587891</v>
+        <v>85</v>
       </c>
       <c r="D144" t="n">
-        <v>59.20000076293945</v>
+        <v>68.30000305175781</v>
       </c>
       <c r="E144" t="n">
-        <v>76.34999847412109</v>
+        <v>72.84999847412109</v>
       </c>
       <c r="F144" t="n">
-        <v>76.34999847412109</v>
+        <v>72.84999847412109</v>
       </c>
       <c r="G144" t="n">
-        <v>33233841</v>
+        <v>110160029</v>
       </c>
       <c r="H144" t="n">
         <v>2024</v>
       </c>
       <c r="I144" t="n">
+        <v>5</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>18</v>
+      </c>
+      <c r="O144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B145" t="n">
+        <v>77</v>
+      </c>
+      <c r="C145" t="n">
+        <v>78.90000152587891</v>
+      </c>
+      <c r="D145" t="n">
+        <v>59.20000076293945</v>
+      </c>
+      <c r="E145" t="n">
+        <v>76.34999847412109</v>
+      </c>
+      <c r="F145" t="n">
+        <v>76.34999847412109</v>
+      </c>
+      <c r="G145" t="n">
+        <v>33233841</v>
+      </c>
+      <c r="H145" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I145" t="n">
         <v>6</v>
       </c>
-      <c r="J144" t="n">
-        <v>1</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0</v>
-      </c>
-      <c r="L144" t="n">
-        <v>0</v>
-      </c>
-      <c r="M144" t="n">
-        <v>0</v>
-      </c>
-      <c r="N144" t="n">
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
         <v>22</v>
       </c>
-      <c r="O144" t="n">
-        <v>0</v>
-      </c>
-      <c r="P144" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q144" t="n">
+      <c r="O145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q145" t="n">
         <v>2</v>
       </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B146" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="C146" t="n">
+        <v>84.80000305175781</v>
+      </c>
+      <c r="D146" t="n">
+        <v>71.05000305175781</v>
+      </c>
+      <c r="E146" t="n">
+        <v>79.62000274658203</v>
+      </c>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="n">
+        <v>85557076</v>
+      </c>
+      <c r="H146" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I146" t="n">
+        <v>7</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>27</v>
+      </c>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B147" t="n">
+        <v>79.98999786376953</v>
+      </c>
+      <c r="C147" t="n">
+        <v>92.09999847412109</v>
+      </c>
+      <c r="D147" t="n">
+        <v>71</v>
+      </c>
+      <c r="E147" t="n">
+        <v>79.83000183105469</v>
+      </c>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="n">
+        <v>301353621</v>
+      </c>
+      <c r="H147" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I147" t="n">
+        <v>8</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>31</v>
+      </c>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B148" t="n">
+        <v>79.80000305175781</v>
+      </c>
+      <c r="C148" t="n">
+        <v>84.69999694824219</v>
+      </c>
+      <c r="D148" t="n">
+        <v>75.86000061035156</v>
+      </c>
+      <c r="E148" t="n">
+        <v>76.29000091552734</v>
+      </c>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="n">
+        <v>188110398</v>
+      </c>
+      <c r="H148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I148" t="n">
+        <v>9</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>35</v>
+      </c>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B149" t="n">
+        <v>76.69999694824219</v>
+      </c>
+      <c r="C149" t="n">
+        <v>77.44999694824219</v>
+      </c>
+      <c r="D149" t="n">
+        <v>61.2599983215332</v>
+      </c>
+      <c r="E149" t="n">
+        <v>74.19999694824219</v>
+      </c>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="n">
+        <v>121024760</v>
+      </c>
+      <c r="H149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I149" t="n">
+        <v>10</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>40</v>
+      </c>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B150" t="n">
+        <v>75</v>
+      </c>
+      <c r="C150" t="n">
+        <v>77.58999633789062</v>
+      </c>
+      <c r="D150" t="n">
+        <v>59.84000015258789</v>
+      </c>
+      <c r="E150" t="n">
+        <v>65.91000366210938</v>
+      </c>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="n">
+        <v>93286336</v>
+      </c>
+      <c r="H150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I150" t="n">
+        <v>11</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>44</v>
+      </c>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B151" t="n">
+        <v>65.91000366210938</v>
+      </c>
+      <c r="C151" t="n">
+        <v>74.30000305175781</v>
+      </c>
+      <c r="D151" t="n">
+        <v>62.56999969482422</v>
+      </c>
+      <c r="E151" t="n">
+        <v>63.61999893188477</v>
+      </c>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="n">
+        <v>69571983</v>
+      </c>
+      <c r="H151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I151" t="n">
+        <v>12</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>48</v>
+      </c>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B152" t="n">
+        <v>63.61999893188477</v>
+      </c>
+      <c r="C152" t="n">
+        <v>66.16999816894531</v>
+      </c>
+      <c r="D152" t="n">
+        <v>50.20000076293945</v>
+      </c>
+      <c r="E152" t="n">
+        <v>54.54000091552734</v>
+      </c>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="n">
+        <v>42321424</v>
+      </c>
+      <c r="H152" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B153" t="n">
+        <v>55</v>
+      </c>
+      <c r="C153" t="n">
+        <v>60</v>
+      </c>
+      <c r="D153" t="n">
+        <v>40.59000015258789</v>
+      </c>
+      <c r="E153" t="n">
+        <v>41.02999877929688</v>
+      </c>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="n">
+        <v>51593099</v>
+      </c>
+      <c r="H153" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I153" t="n">
+        <v>2</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>5</v>
+      </c>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B154" t="n">
+        <v>41.11000061035156</v>
+      </c>
+      <c r="C154" t="n">
+        <v>45.79000091552734</v>
+      </c>
+      <c r="D154" t="n">
+        <v>38.29999923706055</v>
+      </c>
+      <c r="E154" t="n">
+        <v>41.04999923706055</v>
+      </c>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="n">
+        <v>61890275</v>
+      </c>
+      <c r="H154" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I154" t="n">
+        <v>3</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>9</v>
+      </c>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
